--- a/pandemic/AUS_COVID19Data_Monthly.xlsx
+++ b/pandemic/AUS_COVID19Data_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EE9F2C-C2C7-4D7E-A3A4-7B8A9E468845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F744373-6990-411D-9F9A-AED8325D32D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 associated deaths" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>DATE_OF_DEATH</t>
   </si>
@@ -190,1221 +190,6 @@
   </si>
   <si>
     <t>MONTHLY_PBS_SCRIPTS_AGES_70_99</t>
-  </si>
-  <si>
-    <t>13/01/2022</t>
-  </si>
-  <si>
-    <t>14/01/2022</t>
-  </si>
-  <si>
-    <t>15/01/2022</t>
-  </si>
-  <si>
-    <t>16/01/2022</t>
-  </si>
-  <si>
-    <t>17/01/2022</t>
-  </si>
-  <si>
-    <t>18/01/2022</t>
-  </si>
-  <si>
-    <t>19/01/2022</t>
-  </si>
-  <si>
-    <t>20/01/2022</t>
-  </si>
-  <si>
-    <t>21/01/2022</t>
-  </si>
-  <si>
-    <t>22/01/2022</t>
-  </si>
-  <si>
-    <t>23/01/2022</t>
-  </si>
-  <si>
-    <t>24/01/2022</t>
-  </si>
-  <si>
-    <t>25/01/2022</t>
-  </si>
-  <si>
-    <t>26/01/2022</t>
-  </si>
-  <si>
-    <t>27/01/2022</t>
-  </si>
-  <si>
-    <t>28/01/2022</t>
-  </si>
-  <si>
-    <t>29/01/2022</t>
-  </si>
-  <si>
-    <t>30/01/2022</t>
-  </si>
-  <si>
-    <t>31/01/2022</t>
-  </si>
-  <si>
-    <t>13/02/2022</t>
-  </si>
-  <si>
-    <t>14/02/2022</t>
-  </si>
-  <si>
-    <t>15/02/2022</t>
-  </si>
-  <si>
-    <t>16/02/2022</t>
-  </si>
-  <si>
-    <t>17/02/2022</t>
-  </si>
-  <si>
-    <t>18/02/2022</t>
-  </si>
-  <si>
-    <t>19/02/2022</t>
-  </si>
-  <si>
-    <t>20/02/2022</t>
-  </si>
-  <si>
-    <t>21/02/2022</t>
-  </si>
-  <si>
-    <t>22/02/2022</t>
-  </si>
-  <si>
-    <t>23/02/2022</t>
-  </si>
-  <si>
-    <t>24/02/2022</t>
-  </si>
-  <si>
-    <t>25/02/2022</t>
-  </si>
-  <si>
-    <t>26/02/2022</t>
-  </si>
-  <si>
-    <t>27/02/2022</t>
-  </si>
-  <si>
-    <t>28/02/2022</t>
-  </si>
-  <si>
-    <t>13/03/2022</t>
-  </si>
-  <si>
-    <t>14/03/2022</t>
-  </si>
-  <si>
-    <t>15/03/2022</t>
-  </si>
-  <si>
-    <t>16/03/2022</t>
-  </si>
-  <si>
-    <t>17/03/2022</t>
-  </si>
-  <si>
-    <t>18/03/2022</t>
-  </si>
-  <si>
-    <t>19/03/2022</t>
-  </si>
-  <si>
-    <t>20/03/2022</t>
-  </si>
-  <si>
-    <t>21/03/2022</t>
-  </si>
-  <si>
-    <t>22/03/2022</t>
-  </si>
-  <si>
-    <t>23/03/2022</t>
-  </si>
-  <si>
-    <t>24/03/2022</t>
-  </si>
-  <si>
-    <t>25/03/2022</t>
-  </si>
-  <si>
-    <t>26/03/2022</t>
-  </si>
-  <si>
-    <t>27/03/2022</t>
-  </si>
-  <si>
-    <t>28/03/2022</t>
-  </si>
-  <si>
-    <t>29/03/2022</t>
-  </si>
-  <si>
-    <t>30/03/2022</t>
-  </si>
-  <si>
-    <t>31/03/2022</t>
-  </si>
-  <si>
-    <t>13/04/2022</t>
-  </si>
-  <si>
-    <t>14/04/2022</t>
-  </si>
-  <si>
-    <t>15/04/2022</t>
-  </si>
-  <si>
-    <t>16/04/2022</t>
-  </si>
-  <si>
-    <t>17/04/2022</t>
-  </si>
-  <si>
-    <t>18/04/2022</t>
-  </si>
-  <si>
-    <t>19/04/2022</t>
-  </si>
-  <si>
-    <t>20/04/2022</t>
-  </si>
-  <si>
-    <t>21/04/2022</t>
-  </si>
-  <si>
-    <t>22/04/2022</t>
-  </si>
-  <si>
-    <t>23/04/2022</t>
-  </si>
-  <si>
-    <t>24/04/2022</t>
-  </si>
-  <si>
-    <t>25/04/2022</t>
-  </si>
-  <si>
-    <t>26/04/2022</t>
-  </si>
-  <si>
-    <t>27/04/2022</t>
-  </si>
-  <si>
-    <t>28/04/2022</t>
-  </si>
-  <si>
-    <t>29/04/2022</t>
-  </si>
-  <si>
-    <t>30/04/2022</t>
-  </si>
-  <si>
-    <t>13/05/2022</t>
-  </si>
-  <si>
-    <t>14/05/2022</t>
-  </si>
-  <si>
-    <t>15/05/2022</t>
-  </si>
-  <si>
-    <t>16/05/2022</t>
-  </si>
-  <si>
-    <t>17/05/2022</t>
-  </si>
-  <si>
-    <t>18/05/2022</t>
-  </si>
-  <si>
-    <t>19/05/2022</t>
-  </si>
-  <si>
-    <t>20/05/2022</t>
-  </si>
-  <si>
-    <t>21/05/2022</t>
-  </si>
-  <si>
-    <t>22/05/2022</t>
-  </si>
-  <si>
-    <t>23/05/2022</t>
-  </si>
-  <si>
-    <t>24/05/2022</t>
-  </si>
-  <si>
-    <t>25/05/2022</t>
-  </si>
-  <si>
-    <t>26/05/2022</t>
-  </si>
-  <si>
-    <t>27/05/2022</t>
-  </si>
-  <si>
-    <t>28/05/2022</t>
-  </si>
-  <si>
-    <t>29/05/2022</t>
-  </si>
-  <si>
-    <t>30/05/2022</t>
-  </si>
-  <si>
-    <t>31/05/2022</t>
-  </si>
-  <si>
-    <t>13/06/2022</t>
-  </si>
-  <si>
-    <t>14/06/2022</t>
-  </si>
-  <si>
-    <t>15/06/2022</t>
-  </si>
-  <si>
-    <t>16/06/2022</t>
-  </si>
-  <si>
-    <t>17/06/2022</t>
-  </si>
-  <si>
-    <t>18/06/2022</t>
-  </si>
-  <si>
-    <t>19/06/2022</t>
-  </si>
-  <si>
-    <t>20/06/2022</t>
-  </si>
-  <si>
-    <t>21/06/2022</t>
-  </si>
-  <si>
-    <t>22/06/2022</t>
-  </si>
-  <si>
-    <t>23/06/2022</t>
-  </si>
-  <si>
-    <t>24/06/2022</t>
-  </si>
-  <si>
-    <t>25/06/2022</t>
-  </si>
-  <si>
-    <t>26/06/2022</t>
-  </si>
-  <si>
-    <t>27/06/2022</t>
-  </si>
-  <si>
-    <t>28/06/2022</t>
-  </si>
-  <si>
-    <t>29/06/2022</t>
-  </si>
-  <si>
-    <t>30/06/2022</t>
-  </si>
-  <si>
-    <t>13/07/2022</t>
-  </si>
-  <si>
-    <t>14/07/2022</t>
-  </si>
-  <si>
-    <t>15/07/2022</t>
-  </si>
-  <si>
-    <t>16/07/2022</t>
-  </si>
-  <si>
-    <t>17/07/2022</t>
-  </si>
-  <si>
-    <t>18/07/2022</t>
-  </si>
-  <si>
-    <t>19/07/2022</t>
-  </si>
-  <si>
-    <t>20/07/2022</t>
-  </si>
-  <si>
-    <t>21/07/2022</t>
-  </si>
-  <si>
-    <t>22/07/2022</t>
-  </si>
-  <si>
-    <t>23/07/2022</t>
-  </si>
-  <si>
-    <t>24/07/2022</t>
-  </si>
-  <si>
-    <t>25/07/2022</t>
-  </si>
-  <si>
-    <t>26/07/2022</t>
-  </si>
-  <si>
-    <t>27/07/2022</t>
-  </si>
-  <si>
-    <t>28/07/2022</t>
-  </si>
-  <si>
-    <t>29/07/2022</t>
-  </si>
-  <si>
-    <t>30/07/2022</t>
-  </si>
-  <si>
-    <t>31/07/2022</t>
-  </si>
-  <si>
-    <t>13/08/2022</t>
-  </si>
-  <si>
-    <t>14/08/2022</t>
-  </si>
-  <si>
-    <t>15/08/2022</t>
-  </si>
-  <si>
-    <t>16/08/2022</t>
-  </si>
-  <si>
-    <t>17/08/2022</t>
-  </si>
-  <si>
-    <t>18/08/2022</t>
-  </si>
-  <si>
-    <t>19/08/2022</t>
-  </si>
-  <si>
-    <t>20/08/2022</t>
-  </si>
-  <si>
-    <t>21/08/2022</t>
-  </si>
-  <si>
-    <t>22/08/2022</t>
-  </si>
-  <si>
-    <t>23/08/2022</t>
-  </si>
-  <si>
-    <t>24/08/2022</t>
-  </si>
-  <si>
-    <t>25/08/2022</t>
-  </si>
-  <si>
-    <t>26/08/2022</t>
-  </si>
-  <si>
-    <t>27/08/2022</t>
-  </si>
-  <si>
-    <t>28/08/2022</t>
-  </si>
-  <si>
-    <t>29/08/2022</t>
-  </si>
-  <si>
-    <t>30/08/2022</t>
-  </si>
-  <si>
-    <t>31/08/2022</t>
-  </si>
-  <si>
-    <t>13/09/2022</t>
-  </si>
-  <si>
-    <t>14/09/2022</t>
-  </si>
-  <si>
-    <t>15/09/2022</t>
-  </si>
-  <si>
-    <t>16/09/2022</t>
-  </si>
-  <si>
-    <t>17/09/2022</t>
-  </si>
-  <si>
-    <t>18/09/2022</t>
-  </si>
-  <si>
-    <t>19/09/2022</t>
-  </si>
-  <si>
-    <t>20/09/2022</t>
-  </si>
-  <si>
-    <t>21/09/2022</t>
-  </si>
-  <si>
-    <t>22/09/2022</t>
-  </si>
-  <si>
-    <t>23/09/2022</t>
-  </si>
-  <si>
-    <t>24/09/2022</t>
-  </si>
-  <si>
-    <t>25/09/2022</t>
-  </si>
-  <si>
-    <t>26/09/2022</t>
-  </si>
-  <si>
-    <t>27/09/2022</t>
-  </si>
-  <si>
-    <t>28/09/2022</t>
-  </si>
-  <si>
-    <t>29/09/2022</t>
-  </si>
-  <si>
-    <t>30/09/2022</t>
-  </si>
-  <si>
-    <t>13/10/2022</t>
-  </si>
-  <si>
-    <t>14/10/2022</t>
-  </si>
-  <si>
-    <t>15/10/2022</t>
-  </si>
-  <si>
-    <t>16/10/2022</t>
-  </si>
-  <si>
-    <t>17/10/2022</t>
-  </si>
-  <si>
-    <t>18/10/2022</t>
-  </si>
-  <si>
-    <t>19/10/2022</t>
-  </si>
-  <si>
-    <t>20/10/2022</t>
-  </si>
-  <si>
-    <t>21/10/2022</t>
-  </si>
-  <si>
-    <t>22/10/2022</t>
-  </si>
-  <si>
-    <t>23/10/2022</t>
-  </si>
-  <si>
-    <t>24/10/2022</t>
-  </si>
-  <si>
-    <t>25/10/2022</t>
-  </si>
-  <si>
-    <t>26/10/2022</t>
-  </si>
-  <si>
-    <t>27/10/2022</t>
-  </si>
-  <si>
-    <t>28/10/2022</t>
-  </si>
-  <si>
-    <t>29/10/2022</t>
-  </si>
-  <si>
-    <t>30/10/2022</t>
-  </si>
-  <si>
-    <t>31/10/2022</t>
-  </si>
-  <si>
-    <t>13/11/2022</t>
-  </si>
-  <si>
-    <t>14/11/2022</t>
-  </si>
-  <si>
-    <t>15/11/2022</t>
-  </si>
-  <si>
-    <t>16/11/2022</t>
-  </si>
-  <si>
-    <t>17/11/2022</t>
-  </si>
-  <si>
-    <t>18/11/2022</t>
-  </si>
-  <si>
-    <t>19/11/2022</t>
-  </si>
-  <si>
-    <t>20/11/2022</t>
-  </si>
-  <si>
-    <t>21/11/2022</t>
-  </si>
-  <si>
-    <t>22/11/2022</t>
-  </si>
-  <si>
-    <t>23/11/2022</t>
-  </si>
-  <si>
-    <t>24/11/2022</t>
-  </si>
-  <si>
-    <t>25/11/2022</t>
-  </si>
-  <si>
-    <t>26/11/2022</t>
-  </si>
-  <si>
-    <t>27/11/2022</t>
-  </si>
-  <si>
-    <t>28/11/2022</t>
-  </si>
-  <si>
-    <t>29/11/2022</t>
-  </si>
-  <si>
-    <t>30/11/2022</t>
-  </si>
-  <si>
-    <t>13/12/2022</t>
-  </si>
-  <si>
-    <t>14/12/2022</t>
-  </si>
-  <si>
-    <t>15/12/2022</t>
-  </si>
-  <si>
-    <t>16/12/2022</t>
-  </si>
-  <si>
-    <t>17/12/2022</t>
-  </si>
-  <si>
-    <t>18/12/2022</t>
-  </si>
-  <si>
-    <t>19/12/2022</t>
-  </si>
-  <si>
-    <t>20/12/2022</t>
-  </si>
-  <si>
-    <t>21/12/2022</t>
-  </si>
-  <si>
-    <t>22/12/2022</t>
-  </si>
-  <si>
-    <t>23/12/2022</t>
-  </si>
-  <si>
-    <t>24/12/2022</t>
-  </si>
-  <si>
-    <t>25/12/2022</t>
-  </si>
-  <si>
-    <t>26/12/2022</t>
-  </si>
-  <si>
-    <t>27/12/2022</t>
-  </si>
-  <si>
-    <t>28/12/2022</t>
-  </si>
-  <si>
-    <t>29/12/2022</t>
-  </si>
-  <si>
-    <t>30/12/2022</t>
-  </si>
-  <si>
-    <t>31/12/2022</t>
-  </si>
-  <si>
-    <t>13/01/2023</t>
-  </si>
-  <si>
-    <t>14/01/2023</t>
-  </si>
-  <si>
-    <t>15/01/2023</t>
-  </si>
-  <si>
-    <t>16/01/2023</t>
-  </si>
-  <si>
-    <t>17/01/2023</t>
-  </si>
-  <si>
-    <t>18/01/2023</t>
-  </si>
-  <si>
-    <t>19/01/2023</t>
-  </si>
-  <si>
-    <t>20/01/2023</t>
-  </si>
-  <si>
-    <t>21/01/2023</t>
-  </si>
-  <si>
-    <t>22/01/2023</t>
-  </si>
-  <si>
-    <t>23/01/2023</t>
-  </si>
-  <si>
-    <t>24/01/2023</t>
-  </si>
-  <si>
-    <t>25/01/2023</t>
-  </si>
-  <si>
-    <t>26/01/2023</t>
-  </si>
-  <si>
-    <t>27/01/2023</t>
-  </si>
-  <si>
-    <t>28/01/2023</t>
-  </si>
-  <si>
-    <t>29/01/2023</t>
-  </si>
-  <si>
-    <t>30/01/2023</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>13/02/2023</t>
-  </si>
-  <si>
-    <t>14/02/2023</t>
-  </si>
-  <si>
-    <t>15/02/2023</t>
-  </si>
-  <si>
-    <t>16/02/2023</t>
-  </si>
-  <si>
-    <t>17/02/2023</t>
-  </si>
-  <si>
-    <t>18/02/2023</t>
-  </si>
-  <si>
-    <t>19/02/2023</t>
-  </si>
-  <si>
-    <t>20/02/2023</t>
-  </si>
-  <si>
-    <t>21/02/2023</t>
-  </si>
-  <si>
-    <t>22/02/2023</t>
-  </si>
-  <si>
-    <t>23/02/2023</t>
-  </si>
-  <si>
-    <t>24/02/2023</t>
-  </si>
-  <si>
-    <t>25/02/2023</t>
-  </si>
-  <si>
-    <t>26/02/2023</t>
-  </si>
-  <si>
-    <t>27/02/2023</t>
-  </si>
-  <si>
-    <t>28/02/2023</t>
-  </si>
-  <si>
-    <t>13/03/2023</t>
-  </si>
-  <si>
-    <t>14/03/2023</t>
-  </si>
-  <si>
-    <t>15/03/2023</t>
-  </si>
-  <si>
-    <t>16/03/2023</t>
-  </si>
-  <si>
-    <t>17/03/2023</t>
-  </si>
-  <si>
-    <t>18/03/2023</t>
-  </si>
-  <si>
-    <t>19/03/2023</t>
-  </si>
-  <si>
-    <t>20/03/2023</t>
-  </si>
-  <si>
-    <t>21/03/2023</t>
-  </si>
-  <si>
-    <t>22/03/2023</t>
-  </si>
-  <si>
-    <t>23/03/2023</t>
-  </si>
-  <si>
-    <t>24/03/2023</t>
-  </si>
-  <si>
-    <t>25/03/2023</t>
-  </si>
-  <si>
-    <t>26/03/2023</t>
-  </si>
-  <si>
-    <t>27/03/2023</t>
-  </si>
-  <si>
-    <t>28/03/2023</t>
-  </si>
-  <si>
-    <t>29/03/2023</t>
-  </si>
-  <si>
-    <t>30/03/2023</t>
-  </si>
-  <si>
-    <t>31/03/2023</t>
-  </si>
-  <si>
-    <t>13/04/2023</t>
-  </si>
-  <si>
-    <t>14/04/2023</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>16/04/2023</t>
-  </si>
-  <si>
-    <t>17/04/2023</t>
-  </si>
-  <si>
-    <t>18/04/2023</t>
-  </si>
-  <si>
-    <t>19/04/2023</t>
-  </si>
-  <si>
-    <t>20/04/2023</t>
-  </si>
-  <si>
-    <t>21/04/2023</t>
-  </si>
-  <si>
-    <t>22/04/2023</t>
-  </si>
-  <si>
-    <t>23/04/2023</t>
-  </si>
-  <si>
-    <t>24/04/2023</t>
-  </si>
-  <si>
-    <t>25/04/2023</t>
-  </si>
-  <si>
-    <t>26/04/2023</t>
-  </si>
-  <si>
-    <t>27/04/2023</t>
-  </si>
-  <si>
-    <t>28/04/2023</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
-  </si>
-  <si>
-    <t>30/04/2023</t>
-  </si>
-  <si>
-    <t>13/05/2023</t>
-  </si>
-  <si>
-    <t>14/05/2023</t>
-  </si>
-  <si>
-    <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>16/05/2023</t>
-  </si>
-  <si>
-    <t>17/05/2023</t>
-  </si>
-  <si>
-    <t>18/05/2023</t>
-  </si>
-  <si>
-    <t>19/05/2023</t>
-  </si>
-  <si>
-    <t>20/05/2023</t>
-  </si>
-  <si>
-    <t>21/05/2023</t>
-  </si>
-  <si>
-    <t>22/05/2023</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
-  </si>
-  <si>
-    <t>24/05/2023</t>
-  </si>
-  <si>
-    <t>25/05/2023</t>
-  </si>
-  <si>
-    <t>26/05/2023</t>
-  </si>
-  <si>
-    <t>27/05/2023</t>
-  </si>
-  <si>
-    <t>28/05/2023</t>
-  </si>
-  <si>
-    <t>29/05/2023</t>
-  </si>
-  <si>
-    <t>30/05/2023</t>
-  </si>
-  <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
-    <t>13/06/2023</t>
-  </si>
-  <si>
-    <t>14/06/2023</t>
-  </si>
-  <si>
-    <t>15/06/2023</t>
-  </si>
-  <si>
-    <t>16/06/2023</t>
-  </si>
-  <si>
-    <t>17/06/2023</t>
-  </si>
-  <si>
-    <t>18/06/2023</t>
-  </si>
-  <si>
-    <t>19/06/2023</t>
-  </si>
-  <si>
-    <t>20/06/2023</t>
-  </si>
-  <si>
-    <t>21/06/2023</t>
-  </si>
-  <si>
-    <t>22/06/2023</t>
-  </si>
-  <si>
-    <t>23/06/2023</t>
-  </si>
-  <si>
-    <t>24/06/2023</t>
-  </si>
-  <si>
-    <t>25/06/2023</t>
-  </si>
-  <si>
-    <t>26/06/2023</t>
-  </si>
-  <si>
-    <t>27/06/2023</t>
-  </si>
-  <si>
-    <t>28/06/2023</t>
-  </si>
-  <si>
-    <t>29/06/2023</t>
-  </si>
-  <si>
-    <t>30/06/2023</t>
-  </si>
-  <si>
-    <t>13/07/2023</t>
-  </si>
-  <si>
-    <t>14/07/2023</t>
-  </si>
-  <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t>16/07/2023</t>
-  </si>
-  <si>
-    <t>17/07/2023</t>
-  </si>
-  <si>
-    <t>18/07/2023</t>
-  </si>
-  <si>
-    <t>19/07/2023</t>
-  </si>
-  <si>
-    <t>20/07/2023</t>
-  </si>
-  <si>
-    <t>21/07/2023</t>
-  </si>
-  <si>
-    <t>22/07/2023</t>
-  </si>
-  <si>
-    <t>23/07/2023</t>
-  </si>
-  <si>
-    <t>24/07/2023</t>
-  </si>
-  <si>
-    <t>25/07/2023</t>
-  </si>
-  <si>
-    <t>26/07/2023</t>
-  </si>
-  <si>
-    <t>27/07/2023</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>29/07/2023</t>
-  </si>
-  <si>
-    <t>30/07/2023</t>
-  </si>
-  <si>
-    <t>31/07/2023</t>
-  </si>
-  <si>
-    <t>13/08/2023</t>
-  </si>
-  <si>
-    <t>14/08/2023</t>
-  </si>
-  <si>
-    <t>15/08/2023</t>
-  </si>
-  <si>
-    <t>16/08/2023</t>
-  </si>
-  <si>
-    <t>17/08/2023</t>
-  </si>
-  <si>
-    <t>18/08/2023</t>
-  </si>
-  <si>
-    <t>19/08/2023</t>
-  </si>
-  <si>
-    <t>20/08/2023</t>
-  </si>
-  <si>
-    <t>21/08/2023</t>
-  </si>
-  <si>
-    <t>22/08/2023</t>
-  </si>
-  <si>
-    <t>23/08/2023</t>
-  </si>
-  <si>
-    <t>24/08/2023</t>
-  </si>
-  <si>
-    <t>25/08/2023</t>
-  </si>
-  <si>
-    <t>26/08/2023</t>
-  </si>
-  <si>
-    <t>27/08/2023</t>
-  </si>
-  <si>
-    <t>28/08/2023</t>
-  </si>
-  <si>
-    <t>29/08/2023</t>
-  </si>
-  <si>
-    <t>30/08/2023</t>
-  </si>
-  <si>
-    <t>31/08/2023</t>
-  </si>
-  <si>
-    <t>13/09/2023</t>
-  </si>
-  <si>
-    <t>14/09/2023</t>
-  </si>
-  <si>
-    <t>15/09/2023</t>
-  </si>
-  <si>
-    <t>16/09/2023</t>
-  </si>
-  <si>
-    <t>17/09/2023</t>
-  </si>
-  <si>
-    <t>18/09/2023</t>
-  </si>
-  <si>
-    <t>19/09/2023</t>
-  </si>
-  <si>
-    <t>20/09/2023</t>
-  </si>
-  <si>
-    <t>21/09/2023</t>
-  </si>
-  <si>
-    <t>22/09/2023</t>
-  </si>
-  <si>
-    <t>23/09/2023</t>
-  </si>
-  <si>
-    <t>24/09/2023</t>
-  </si>
-  <si>
-    <t>25/09/2023</t>
-  </si>
-  <si>
-    <t>26/09/2023</t>
-  </si>
-  <si>
-    <t>27/09/2023</t>
-  </si>
-  <si>
-    <t>28/09/2023</t>
-  </si>
-  <si>
-    <t>29/09/2023</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>13/10/2023</t>
-  </si>
-  <si>
-    <t>14/10/2023</t>
-  </si>
-  <si>
-    <t>15/10/2023</t>
-  </si>
-  <si>
-    <t>16/10/2023</t>
-  </si>
-  <si>
-    <t>17/10/2023</t>
-  </si>
-  <si>
-    <t>18/10/2023</t>
-  </si>
-  <si>
-    <t>19/10/2023</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>21/10/2023</t>
-  </si>
-  <si>
-    <t>22/10/2023</t>
-  </si>
-  <si>
-    <t>23/10/2023</t>
-  </si>
-  <si>
-    <t>24/10/2023</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
-    <t>26/10/2023</t>
-  </si>
-  <si>
-    <t>27/10/2023</t>
-  </si>
-  <si>
-    <t>28/10/2023</t>
-  </si>
-  <si>
-    <t>29/10/2023</t>
-  </si>
-  <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20657,7 +19442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1D37D2-F9D7-4C23-B37C-DABA40BA4E9F}">
   <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E186" sqref="B186:E186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26935,7 +25722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8160AD4-A8D7-4270-90E3-7AF44DF2AEBC}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27821,7 +26610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6165AF6-D5BA-409B-A7FC-A463DF1F4E5F}">
   <dimension ref="A1:Z678"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28015,7 +26806,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44593</v>
+        <v>44563</v>
       </c>
       <c r="B3">
         <v>188</v>
@@ -28095,7 +26886,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44621</v>
+        <v>44564</v>
       </c>
       <c r="B4">
         <v>188</v>
@@ -28175,7 +26966,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44652</v>
+        <v>44565</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -28255,7 +27046,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44682</v>
+        <v>44566</v>
       </c>
       <c r="B6">
         <v>337</v>
@@ -28335,7 +27126,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44713</v>
+        <v>44567</v>
       </c>
       <c r="B7">
         <v>375</v>
@@ -28415,7 +27206,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44743</v>
+        <v>44568</v>
       </c>
       <c r="B8">
         <v>406</v>
@@ -28495,7 +27286,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44774</v>
+        <v>44569</v>
       </c>
       <c r="B9">
         <v>406</v>
@@ -28575,7 +27366,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44805</v>
+        <v>44570</v>
       </c>
       <c r="B10">
         <v>406</v>
@@ -28655,7 +27446,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44835</v>
+        <v>44571</v>
       </c>
       <c r="B11">
         <v>465</v>
@@ -28735,7 +27526,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44866</v>
+        <v>44572</v>
       </c>
       <c r="B12">
         <v>491</v>
@@ -28815,7 +27606,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44896</v>
+        <v>44573</v>
       </c>
       <c r="B13">
         <v>523</v>
@@ -28894,8 +27685,8 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
+      <c r="A14" s="1">
+        <v>44574</v>
       </c>
       <c r="B14">
         <v>521</v>
@@ -28974,8 +27765,8 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
+      <c r="A15" s="1">
+        <v>44575</v>
       </c>
       <c r="B15">
         <v>521</v>
@@ -29054,8 +27845,8 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
+      <c r="A16" s="1">
+        <v>44576</v>
       </c>
       <c r="B16">
         <v>521</v>
@@ -29134,8 +27925,8 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
+      <c r="A17" s="1">
+        <v>44577</v>
       </c>
       <c r="B17">
         <v>1010</v>
@@ -29214,8 +28005,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
+      <c r="A18" s="1">
+        <v>44578</v>
       </c>
       <c r="B18">
         <v>1011</v>
@@ -29294,8 +28085,8 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>55</v>
+      <c r="A19" s="1">
+        <v>44579</v>
       </c>
       <c r="B19">
         <v>1011</v>
@@ -29374,8 +28165,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
+      <c r="A20" s="1">
+        <v>44580</v>
       </c>
       <c r="B20">
         <v>1186</v>
@@ -29454,8 +28245,8 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
+      <c r="A21" s="1">
+        <v>44581</v>
       </c>
       <c r="B21">
         <v>1230</v>
@@ -29534,8 +28325,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
+      <c r="A22" s="1">
+        <v>44582</v>
       </c>
       <c r="B22">
         <v>1230</v>
@@ -29614,8 +28405,8 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
+      <c r="A23" s="1">
+        <v>44583</v>
       </c>
       <c r="B23">
         <v>1230</v>
@@ -29694,8 +28485,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
+      <c r="A24" s="1">
+        <v>44584</v>
       </c>
       <c r="B24">
         <v>1270</v>
@@ -29774,8 +28565,8 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="A25" s="1">
+        <v>44585</v>
       </c>
       <c r="B25">
         <v>1283</v>
@@ -29854,8 +28645,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
+      <c r="A26" s="1">
+        <v>44586</v>
       </c>
       <c r="B26">
         <v>1283</v>
@@ -29934,8 +28725,8 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>63</v>
+      <c r="A27" s="1">
+        <v>44587</v>
       </c>
       <c r="B27">
         <v>1202</v>
@@ -30014,8 +28805,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>64</v>
+      <c r="A28" s="1">
+        <v>44588</v>
       </c>
       <c r="B28">
         <v>1204</v>
@@ -30094,8 +28885,8 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
+      <c r="A29" s="1">
+        <v>44589</v>
       </c>
       <c r="B29">
         <v>1204</v>
@@ -30174,8 +28965,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>66</v>
+      <c r="A30" s="1">
+        <v>44590</v>
       </c>
       <c r="B30">
         <v>1204</v>
@@ -30254,8 +29045,8 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>67</v>
+      <c r="A31" s="1">
+        <v>44591</v>
       </c>
       <c r="B31">
         <v>1204</v>
@@ -30334,8 +29125,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>68</v>
+      <c r="A32" s="1">
+        <v>44592</v>
       </c>
       <c r="B32">
         <v>1172</v>
@@ -30415,7 +29206,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44563</v>
+        <v>44593</v>
       </c>
       <c r="B33">
         <v>1150</v>
@@ -30575,7 +29366,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44622</v>
+        <v>44595</v>
       </c>
       <c r="B35">
         <v>1095</v>
@@ -30655,7 +29446,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44653</v>
+        <v>44596</v>
       </c>
       <c r="B36">
         <v>1069</v>
@@ -30735,7 +29526,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44683</v>
+        <v>44597</v>
       </c>
       <c r="B37">
         <v>1069</v>
@@ -30815,7 +29606,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44714</v>
+        <v>44598</v>
       </c>
       <c r="B38">
         <v>1030</v>
@@ -30895,7 +29686,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44744</v>
+        <v>44599</v>
       </c>
       <c r="B39">
         <v>1016</v>
@@ -30975,7 +29766,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44775</v>
+        <v>44600</v>
       </c>
       <c r="B40">
         <v>986</v>
@@ -31055,7 +29846,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44806</v>
+        <v>44601</v>
       </c>
       <c r="B41">
         <v>944</v>
@@ -31135,7 +29926,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44836</v>
+        <v>44602</v>
       </c>
       <c r="B42">
         <v>903</v>
@@ -31215,7 +30006,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44867</v>
+        <v>44603</v>
       </c>
       <c r="B43">
         <v>903</v>
@@ -31295,7 +30086,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44897</v>
+        <v>44604</v>
       </c>
       <c r="B44">
         <v>903</v>
@@ -31374,8 +30165,8 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>69</v>
+      <c r="A45" s="1">
+        <v>44605</v>
       </c>
       <c r="B45">
         <v>848</v>
@@ -31454,8 +30245,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>70</v>
+      <c r="A46" s="1">
+        <v>44606</v>
       </c>
       <c r="B46">
         <v>811</v>
@@ -31534,8 +30325,8 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>71</v>
+      <c r="A47" s="1">
+        <v>44607</v>
       </c>
       <c r="B47">
         <v>697</v>
@@ -31614,8 +30405,8 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>72</v>
+      <c r="A48" s="1">
+        <v>44608</v>
       </c>
       <c r="B48">
         <v>638</v>
@@ -31694,8 +30485,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>73</v>
+      <c r="A49" s="1">
+        <v>44609</v>
       </c>
       <c r="B49">
         <v>569</v>
@@ -31774,8 +30565,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>74</v>
+      <c r="A50" s="1">
+        <v>44610</v>
       </c>
       <c r="B50">
         <v>567</v>
@@ -31854,8 +30645,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>75</v>
+      <c r="A51" s="1">
+        <v>44611</v>
       </c>
       <c r="B51">
         <v>570</v>
@@ -31934,8 +30725,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>76</v>
+      <c r="A52" s="1">
+        <v>44612</v>
       </c>
       <c r="B52">
         <v>445</v>
@@ -32014,8 +30805,8 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>77</v>
+      <c r="A53" s="1">
+        <v>44613</v>
       </c>
       <c r="B53">
         <v>375</v>
@@ -32094,8 +30885,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>78</v>
+      <c r="A54" s="1">
+        <v>44614</v>
       </c>
       <c r="B54">
         <v>286</v>
@@ -32174,8 +30965,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>79</v>
+      <c r="A55" s="1">
+        <v>44615</v>
       </c>
       <c r="B55">
         <v>249</v>
@@ -32254,8 +31045,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>80</v>
+      <c r="A56" s="1">
+        <v>44616</v>
       </c>
       <c r="B56">
         <v>226</v>
@@ -32334,8 +31125,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>81</v>
+      <c r="A57" s="1">
+        <v>44617</v>
       </c>
       <c r="B57">
         <v>209</v>
@@ -32414,8 +31205,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>82</v>
+      <c r="A58" s="1">
+        <v>44618</v>
       </c>
       <c r="B58">
         <v>210</v>
@@ -32494,8 +31285,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>83</v>
+      <c r="A59" s="1">
+        <v>44619</v>
       </c>
       <c r="B59">
         <v>210</v>
@@ -32574,8 +31365,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>84</v>
+      <c r="A60" s="1">
+        <v>44620</v>
       </c>
       <c r="B60">
         <v>211</v>
@@ -32655,7 +31446,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44564</v>
+        <v>44621</v>
       </c>
       <c r="B61">
         <v>221</v>
@@ -32735,7 +31526,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44595</v>
+        <v>44622</v>
       </c>
       <c r="B62">
         <v>228</v>
@@ -32895,7 +31686,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44654</v>
+        <v>44624</v>
       </c>
       <c r="B64">
         <v>241</v>
@@ -32975,7 +31766,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44684</v>
+        <v>44625</v>
       </c>
       <c r="B65">
         <v>242</v>
@@ -33055,7 +31846,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44715</v>
+        <v>44626</v>
       </c>
       <c r="B66">
         <v>245</v>
@@ -33135,7 +31926,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44745</v>
+        <v>44627</v>
       </c>
       <c r="B67">
         <v>257</v>
@@ -33215,7 +32006,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44776</v>
+        <v>44628</v>
       </c>
       <c r="B68">
         <v>263</v>
@@ -33295,7 +32086,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44807</v>
+        <v>44629</v>
       </c>
       <c r="B69">
         <v>284</v>
@@ -33375,7 +32166,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44837</v>
+        <v>44630</v>
       </c>
       <c r="B70">
         <v>304</v>
@@ -33455,7 +32246,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44868</v>
+        <v>44631</v>
       </c>
       <c r="B71">
         <v>316</v>
@@ -33535,7 +32326,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44898</v>
+        <v>44632</v>
       </c>
       <c r="B72">
         <v>320</v>
@@ -33614,8 +32405,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>85</v>
+      <c r="A73" s="1">
+        <v>44633</v>
       </c>
       <c r="B73">
         <v>320</v>
@@ -33694,8 +32485,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>86</v>
+      <c r="A74" s="1">
+        <v>44634</v>
       </c>
       <c r="B74">
         <v>339</v>
@@ -33774,8 +32565,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>87</v>
+      <c r="A75" s="1">
+        <v>44635</v>
       </c>
       <c r="B75">
         <v>360</v>
@@ -33854,8 +32645,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>88</v>
+      <c r="A76" s="1">
+        <v>44636</v>
       </c>
       <c r="B76">
         <v>378</v>
@@ -33934,8 +32725,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>89</v>
+      <c r="A77" s="1">
+        <v>44637</v>
       </c>
       <c r="B77">
         <v>406</v>
@@ -34014,8 +32805,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>90</v>
+      <c r="A78" s="1">
+        <v>44638</v>
       </c>
       <c r="B78">
         <v>423</v>
@@ -34094,8 +32885,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>91</v>
+      <c r="A79" s="1">
+        <v>44639</v>
       </c>
       <c r="B79">
         <v>439</v>
@@ -34174,8 +32965,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>92</v>
+      <c r="A80" s="1">
+        <v>44640</v>
       </c>
       <c r="B80">
         <v>444</v>
@@ -34254,8 +33045,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>93</v>
+      <c r="A81" s="1">
+        <v>44641</v>
       </c>
       <c r="B81">
         <v>494</v>
@@ -34334,8 +33125,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>94</v>
+      <c r="A82" s="1">
+        <v>44642</v>
       </c>
       <c r="B82">
         <v>509</v>
@@ -34414,8 +33205,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>95</v>
+      <c r="A83" s="1">
+        <v>44643</v>
       </c>
       <c r="B83">
         <v>517</v>
@@ -34494,8 +33285,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>96</v>
+      <c r="A84" s="1">
+        <v>44644</v>
       </c>
       <c r="B84">
         <v>553</v>
@@ -34574,8 +33365,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>97</v>
+      <c r="A85" s="1">
+        <v>44645</v>
       </c>
       <c r="B85">
         <v>581</v>
@@ -34654,8 +33445,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>98</v>
+      <c r="A86" s="1">
+        <v>44646</v>
       </c>
       <c r="B86">
         <v>575</v>
@@ -34734,8 +33525,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>99</v>
+      <c r="A87" s="1">
+        <v>44647</v>
       </c>
       <c r="B87">
         <v>571</v>
@@ -34814,8 +33605,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>100</v>
+      <c r="A88" s="1">
+        <v>44648</v>
       </c>
       <c r="B88">
         <v>609</v>
@@ -34894,8 +33685,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>101</v>
+      <c r="A89" s="1">
+        <v>44649</v>
       </c>
       <c r="B89">
         <v>644</v>
@@ -34974,8 +33765,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>102</v>
+      <c r="A90" s="1">
+        <v>44650</v>
       </c>
       <c r="B90">
         <v>665</v>
@@ -35054,8 +33845,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>103</v>
+      <c r="A91" s="1">
+        <v>44651</v>
       </c>
       <c r="B91">
         <v>687</v>
@@ -35135,7 +33926,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44565</v>
+        <v>44652</v>
       </c>
       <c r="B92">
         <v>697</v>
@@ -35215,7 +34006,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44596</v>
+        <v>44653</v>
       </c>
       <c r="B93">
         <v>691</v>
@@ -35295,7 +34086,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44624</v>
+        <v>44654</v>
       </c>
       <c r="B94">
         <v>648</v>
@@ -35455,7 +34246,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44685</v>
+        <v>44656</v>
       </c>
       <c r="B96">
         <v>669</v>
@@ -35535,7 +34326,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44716</v>
+        <v>44657</v>
       </c>
       <c r="B97">
         <v>676</v>
@@ -35615,7 +34406,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44746</v>
+        <v>44658</v>
       </c>
       <c r="B98">
         <v>713</v>
@@ -35695,7 +34486,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44777</v>
+        <v>44659</v>
       </c>
       <c r="B99">
         <v>736</v>
@@ -35775,7 +34566,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44808</v>
+        <v>44660</v>
       </c>
       <c r="B100">
         <v>731</v>
@@ -35855,7 +34646,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44838</v>
+        <v>44661</v>
       </c>
       <c r="B101">
         <v>693</v>
@@ -35935,7 +34726,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44869</v>
+        <v>44662</v>
       </c>
       <c r="B102">
         <v>731</v>
@@ -36015,7 +34806,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44899</v>
+        <v>44663</v>
       </c>
       <c r="B103">
         <v>752</v>
@@ -36094,8 +34885,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>104</v>
+      <c r="A104" s="1">
+        <v>44664</v>
       </c>
       <c r="B104">
         <v>753</v>
@@ -36174,8 +34965,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>105</v>
+      <c r="A105" s="1">
+        <v>44665</v>
       </c>
       <c r="B105">
         <v>775</v>
@@ -36254,8 +35045,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>106</v>
+      <c r="A106" s="1">
+        <v>44666</v>
       </c>
       <c r="B106">
         <v>768</v>
@@ -36334,8 +35125,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>107</v>
+      <c r="A107" s="1">
+        <v>44667</v>
       </c>
       <c r="B107">
         <v>764</v>
@@ -36414,8 +35205,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>108</v>
+      <c r="A108" s="1">
+        <v>44668</v>
       </c>
       <c r="B108">
         <v>752</v>
@@ -36494,8 +35285,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>109</v>
+      <c r="A109" s="1">
+        <v>44669</v>
       </c>
       <c r="B109">
         <v>727</v>
@@ -36574,8 +35365,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>110</v>
+      <c r="A110" s="1">
+        <v>44670</v>
       </c>
       <c r="B110">
         <v>765</v>
@@ -36654,8 +35445,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>111</v>
+      <c r="A111" s="1">
+        <v>44671</v>
       </c>
       <c r="B111">
         <v>776</v>
@@ -36734,8 +35525,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>112</v>
+      <c r="A112" s="1">
+        <v>44672</v>
       </c>
       <c r="B112">
         <v>771</v>
@@ -36814,8 +35605,8 @@
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>113</v>
+      <c r="A113" s="1">
+        <v>44673</v>
       </c>
       <c r="B113">
         <v>767</v>
@@ -36894,8 +35685,8 @@
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>114</v>
+      <c r="A114" s="1">
+        <v>44674</v>
       </c>
       <c r="B114">
         <v>769</v>
@@ -36974,8 +35765,8 @@
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>115</v>
+      <c r="A115" s="1">
+        <v>44675</v>
       </c>
       <c r="B115">
         <v>743</v>
@@ -37054,8 +35845,8 @@
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>116</v>
+      <c r="A116" s="1">
+        <v>44676</v>
       </c>
       <c r="B116">
         <v>721</v>
@@ -37134,8 +35925,8 @@
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>117</v>
+      <c r="A117" s="1">
+        <v>44677</v>
       </c>
       <c r="B117">
         <v>763</v>
@@ -37214,8 +36005,8 @@
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
+      <c r="A118" s="1">
+        <v>44678</v>
       </c>
       <c r="B118">
         <v>757</v>
@@ -37294,8 +36085,8 @@
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>119</v>
+      <c r="A119" s="1">
+        <v>44679</v>
       </c>
       <c r="B119">
         <v>744</v>
@@ -37374,8 +36165,8 @@
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>120</v>
+      <c r="A120" s="1">
+        <v>44680</v>
       </c>
       <c r="B120">
         <v>759</v>
@@ -37454,8 +36245,8 @@
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>121</v>
+      <c r="A121" s="1">
+        <v>44681</v>
       </c>
       <c r="B121">
         <v>760</v>
@@ -37535,7 +36326,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44566</v>
+        <v>44682</v>
       </c>
       <c r="B122">
         <v>738</v>
@@ -37615,7 +36406,7 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44597</v>
+        <v>44683</v>
       </c>
       <c r="B123">
         <v>749</v>
@@ -37695,7 +36486,7 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44625</v>
+        <v>44684</v>
       </c>
       <c r="B124">
         <v>746</v>
@@ -37775,7 +36566,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44656</v>
+        <v>44685</v>
       </c>
       <c r="B125">
         <v>733</v>
@@ -37935,7 +36726,7 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44717</v>
+        <v>44687</v>
       </c>
       <c r="B127">
         <v>743</v>
@@ -38015,7 +36806,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44747</v>
+        <v>44688</v>
       </c>
       <c r="B128">
         <v>729</v>
@@ -38095,7 +36886,7 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44778</v>
+        <v>44689</v>
       </c>
       <c r="B129">
         <v>690</v>
@@ -38175,7 +36966,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44809</v>
+        <v>44690</v>
       </c>
       <c r="B130">
         <v>721</v>
@@ -38255,7 +37046,7 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44839</v>
+        <v>44691</v>
       </c>
       <c r="B131">
         <v>728</v>
@@ -38335,7 +37126,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44870</v>
+        <v>44692</v>
       </c>
       <c r="B132">
         <v>742</v>
@@ -38415,7 +37206,7 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44900</v>
+        <v>44693</v>
       </c>
       <c r="B133">
         <v>741</v>
@@ -38494,8 +37285,8 @@
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>122</v>
+      <c r="A134" s="1">
+        <v>44694</v>
       </c>
       <c r="B134">
         <v>776</v>
@@ -38574,8 +37365,8 @@
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>123</v>
+      <c r="A135" s="1">
+        <v>44695</v>
       </c>
       <c r="B135">
         <v>764</v>
@@ -38654,8 +37445,8 @@
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>124</v>
+      <c r="A136" s="1">
+        <v>44696</v>
       </c>
       <c r="B136">
         <v>760</v>
@@ -38734,8 +37525,8 @@
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>125</v>
+      <c r="A137" s="1">
+        <v>44697</v>
       </c>
       <c r="B137">
         <v>789</v>
@@ -38814,8 +37605,8 @@
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>126</v>
+      <c r="A138" s="1">
+        <v>44698</v>
       </c>
       <c r="B138">
         <v>784</v>
@@ -38894,8 +37685,8 @@
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>127</v>
+      <c r="A139" s="1">
+        <v>44699</v>
       </c>
       <c r="B139">
         <v>777</v>
@@ -38974,8 +37765,8 @@
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>128</v>
+      <c r="A140" s="1">
+        <v>44700</v>
       </c>
       <c r="B140">
         <v>759</v>
@@ -39054,8 +37845,8 @@
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>129</v>
+      <c r="A141" s="1">
+        <v>44701</v>
       </c>
       <c r="B141">
         <v>774</v>
@@ -39134,8 +37925,8 @@
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>130</v>
+      <c r="A142" s="1">
+        <v>44702</v>
       </c>
       <c r="B142">
         <v>757</v>
@@ -39214,8 +38005,8 @@
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>131</v>
+      <c r="A143" s="1">
+        <v>44703</v>
       </c>
       <c r="B143">
         <v>711</v>
@@ -39294,8 +38085,8 @@
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>132</v>
+      <c r="A144" s="1">
+        <v>44704</v>
       </c>
       <c r="B144">
         <v>717</v>
@@ -39374,8 +38165,8 @@
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>133</v>
+      <c r="A145" s="1">
+        <v>44705</v>
       </c>
       <c r="B145">
         <v>707</v>
@@ -39454,8 +38245,8 @@
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>134</v>
+      <c r="A146" s="1">
+        <v>44706</v>
       </c>
       <c r="B146">
         <v>709</v>
@@ -39534,8 +38325,8 @@
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>135</v>
+      <c r="A147" s="1">
+        <v>44707</v>
       </c>
       <c r="B147">
         <v>710</v>
@@ -39614,8 +38405,8 @@
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>136</v>
+      <c r="A148" s="1">
+        <v>44708</v>
       </c>
       <c r="B148">
         <v>727</v>
@@ -39694,8 +38485,8 @@
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>137</v>
+      <c r="A149" s="1">
+        <v>44709</v>
       </c>
       <c r="B149">
         <v>712</v>
@@ -39774,8 +38565,8 @@
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>138</v>
+      <c r="A150" s="1">
+        <v>44710</v>
       </c>
       <c r="B150">
         <v>673</v>
@@ -39854,8 +38645,8 @@
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>139</v>
+      <c r="A151" s="1">
+        <v>44711</v>
       </c>
       <c r="B151">
         <v>680</v>
@@ -39934,8 +38725,8 @@
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>140</v>
+      <c r="A152" s="1">
+        <v>44712</v>
       </c>
       <c r="B152">
         <v>675</v>
@@ -40015,7 +38806,7 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>44567</v>
+        <v>44713</v>
       </c>
       <c r="B153">
         <v>663</v>
@@ -40095,7 +38886,7 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>44598</v>
+        <v>44714</v>
       </c>
       <c r="B154">
         <v>647</v>
@@ -40175,7 +38966,7 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>44626</v>
+        <v>44715</v>
       </c>
       <c r="B155">
         <v>656</v>
@@ -40255,7 +39046,7 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44657</v>
+        <v>44716</v>
       </c>
       <c r="B156">
         <v>648</v>
@@ -40335,7 +39126,7 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44687</v>
+        <v>44717</v>
       </c>
       <c r="B157">
         <v>615</v>
@@ -40495,7 +39286,7 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44748</v>
+        <v>44719</v>
       </c>
       <c r="B159">
         <v>624</v>
@@ -40575,7 +39366,7 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44779</v>
+        <v>44720</v>
       </c>
       <c r="B160">
         <v>624</v>
@@ -40655,7 +39446,7 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44810</v>
+        <v>44721</v>
       </c>
       <c r="B161">
         <v>621</v>
@@ -40735,7 +39526,7 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44840</v>
+        <v>44722</v>
       </c>
       <c r="B162">
         <v>623</v>
@@ -40815,7 +39606,7 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44871</v>
+        <v>44723</v>
       </c>
       <c r="B163">
         <v>609</v>
@@ -40895,7 +39686,7 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44901</v>
+        <v>44724</v>
       </c>
       <c r="B164">
         <v>584</v>
@@ -40974,8 +39765,8 @@
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>141</v>
+      <c r="A165" s="1">
+        <v>44725</v>
       </c>
       <c r="B165">
         <v>549</v>
@@ -41054,8 +39845,8 @@
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>142</v>
+      <c r="A166" s="1">
+        <v>44726</v>
       </c>
       <c r="B166">
         <v>573</v>
@@ -41134,8 +39925,8 @@
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>143</v>
+      <c r="A167" s="1">
+        <v>44727</v>
       </c>
       <c r="B167">
         <v>574</v>
@@ -41214,8 +40005,8 @@
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>144</v>
+      <c r="A168" s="1">
+        <v>44728</v>
       </c>
       <c r="B168">
         <v>586</v>
@@ -41294,8 +40085,8 @@
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>145</v>
+      <c r="A169" s="1">
+        <v>44729</v>
       </c>
       <c r="B169">
         <v>600</v>
@@ -41374,8 +40165,8 @@
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>146</v>
+      <c r="A170" s="1">
+        <v>44730</v>
       </c>
       <c r="B170">
         <v>589</v>
@@ -41454,8 +40245,8 @@
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>147</v>
+      <c r="A171" s="1">
+        <v>44731</v>
       </c>
       <c r="B171">
         <v>546</v>
@@ -41534,8 +40325,8 @@
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>148</v>
+      <c r="A172" s="1">
+        <v>44732</v>
       </c>
       <c r="B172">
         <v>578</v>
@@ -41614,8 +40405,8 @@
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>149</v>
+      <c r="A173" s="1">
+        <v>44733</v>
       </c>
       <c r="B173">
         <v>589</v>
@@ -41694,8 +40485,8 @@
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>150</v>
+      <c r="A174" s="1">
+        <v>44734</v>
       </c>
       <c r="B174">
         <v>571</v>
@@ -41774,8 +40565,8 @@
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>151</v>
+      <c r="A175" s="1">
+        <v>44735</v>
       </c>
       <c r="B175">
         <v>561</v>
@@ -41854,8 +40645,8 @@
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>152</v>
+      <c r="A176" s="1">
+        <v>44736</v>
       </c>
       <c r="B176">
         <v>584</v>
@@ -41934,8 +40725,8 @@
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>153</v>
+      <c r="A177" s="1">
+        <v>44737</v>
       </c>
       <c r="B177">
         <v>565</v>
@@ -42014,8 +40805,8 @@
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>154</v>
+      <c r="A178" s="1">
+        <v>44738</v>
       </c>
       <c r="B178">
         <v>520</v>
@@ -42094,8 +40885,8 @@
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>155</v>
+      <c r="A179" s="1">
+        <v>44739</v>
       </c>
       <c r="B179">
         <v>560</v>
@@ -42174,8 +40965,8 @@
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>156</v>
+      <c r="A180" s="1">
+        <v>44740</v>
       </c>
       <c r="B180">
         <v>581</v>
@@ -42254,8 +41045,8 @@
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>157</v>
+      <c r="A181" s="1">
+        <v>44741</v>
       </c>
       <c r="B181">
         <v>579</v>
@@ -42334,8 +41125,8 @@
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>158</v>
+      <c r="A182" s="1">
+        <v>44742</v>
       </c>
       <c r="B182">
         <v>590</v>
@@ -42415,7 +41206,7 @@
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>44568</v>
+        <v>44743</v>
       </c>
       <c r="B183">
         <v>618</v>
@@ -42495,7 +41286,7 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>44599</v>
+        <v>44744</v>
       </c>
       <c r="B184">
         <v>632</v>
@@ -42575,7 +41366,7 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44627</v>
+        <v>44745</v>
       </c>
       <c r="B185">
         <v>607</v>
@@ -42655,7 +41446,7 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44658</v>
+        <v>44746</v>
       </c>
       <c r="B186">
         <v>648</v>
@@ -42735,7 +41526,7 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>44688</v>
+        <v>44747</v>
       </c>
       <c r="B187">
         <v>673</v>
@@ -42815,7 +41606,7 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>44719</v>
+        <v>44748</v>
       </c>
       <c r="B188">
         <v>686</v>
@@ -42975,7 +41766,7 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>44780</v>
+        <v>44750</v>
       </c>
       <c r="B190">
         <v>722</v>
@@ -43055,7 +41846,7 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>44811</v>
+        <v>44751</v>
       </c>
       <c r="B191">
         <v>710</v>
@@ -43135,7 +41926,7 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>44841</v>
+        <v>44752</v>
       </c>
       <c r="B192">
         <v>696</v>
@@ -43215,7 +42006,7 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>44872</v>
+        <v>44753</v>
       </c>
       <c r="B193">
         <v>737</v>
@@ -43295,7 +42086,7 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>44902</v>
+        <v>44754</v>
       </c>
       <c r="B194">
         <v>765</v>
@@ -43374,8 +42165,8 @@
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>159</v>
+      <c r="A195" s="1">
+        <v>44755</v>
       </c>
       <c r="B195">
         <v>778</v>
@@ -43454,8 +42245,8 @@
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>160</v>
+      <c r="A196" s="1">
+        <v>44756</v>
       </c>
       <c r="B196">
         <v>809</v>
@@ -43534,8 +42325,8 @@
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>161</v>
+      <c r="A197" s="1">
+        <v>44757</v>
       </c>
       <c r="B197">
         <v>866</v>
@@ -43614,8 +42405,8 @@
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>162</v>
+      <c r="A198" s="1">
+        <v>44758</v>
       </c>
       <c r="B198">
         <v>873</v>
@@ -43694,8 +42485,8 @@
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>163</v>
+      <c r="A199" s="1">
+        <v>44759</v>
       </c>
       <c r="B199">
         <v>835</v>
@@ -43774,8 +42565,8 @@
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>164</v>
+      <c r="A200" s="1">
+        <v>44760</v>
       </c>
       <c r="B200">
         <v>885</v>
@@ -43854,8 +42645,8 @@
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>165</v>
+      <c r="A201" s="1">
+        <v>44761</v>
       </c>
       <c r="B201">
         <v>909</v>
@@ -43934,8 +42725,8 @@
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>166</v>
+      <c r="A202" s="1">
+        <v>44762</v>
       </c>
       <c r="B202">
         <v>939</v>
@@ -44014,8 +42805,8 @@
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>167</v>
+      <c r="A203" s="1">
+        <v>44763</v>
       </c>
       <c r="B203">
         <v>947</v>
@@ -44094,8 +42885,8 @@
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>168</v>
+      <c r="A204" s="1">
+        <v>44764</v>
       </c>
       <c r="B204">
         <v>972</v>
@@ -44174,8 +42965,8 @@
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>169</v>
+      <c r="A205" s="1">
+        <v>44765</v>
       </c>
       <c r="B205">
         <v>956</v>
@@ -44254,8 +43045,8 @@
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>170</v>
+      <c r="A206" s="1">
+        <v>44766</v>
       </c>
       <c r="B206">
         <v>935</v>
@@ -44334,8 +43125,8 @@
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>171</v>
+      <c r="A207" s="1">
+        <v>44767</v>
       </c>
       <c r="B207">
         <v>980</v>
@@ -44414,8 +43205,8 @@
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>172</v>
+      <c r="A208" s="1">
+        <v>44768</v>
       </c>
       <c r="B208">
         <v>985</v>
@@ -44494,8 +43285,8 @@
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>173</v>
+      <c r="A209" s="1">
+        <v>44769</v>
       </c>
       <c r="B209">
         <v>1001</v>
@@ -44574,8 +43365,8 @@
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>174</v>
+      <c r="A210" s="1">
+        <v>44770</v>
       </c>
       <c r="B210">
         <v>974</v>
@@ -44654,8 +43445,8 @@
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>175</v>
+      <c r="A211" s="1">
+        <v>44771</v>
       </c>
       <c r="B211">
         <v>984</v>
@@ -44734,8 +43525,8 @@
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>176</v>
+      <c r="A212" s="1">
+        <v>44772</v>
       </c>
       <c r="B212">
         <v>958</v>
@@ -44814,8 +43605,8 @@
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>177</v>
+      <c r="A213" s="1">
+        <v>44773</v>
       </c>
       <c r="B213">
         <v>910</v>
@@ -44895,7 +43686,7 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>44569</v>
+        <v>44774</v>
       </c>
       <c r="B214">
         <v>910</v>
@@ -44975,7 +43766,7 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>44600</v>
+        <v>44775</v>
       </c>
       <c r="B215">
         <v>887</v>
@@ -45055,7 +43846,7 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>44628</v>
+        <v>44776</v>
       </c>
       <c r="B216">
         <v>867</v>
@@ -45135,7 +43926,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>44659</v>
+        <v>44777</v>
       </c>
       <c r="B217">
         <v>839</v>
@@ -45215,7 +44006,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>44689</v>
+        <v>44778</v>
       </c>
       <c r="B218">
         <v>827</v>
@@ -45295,7 +44086,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>44720</v>
+        <v>44779</v>
       </c>
       <c r="B219">
         <v>802</v>
@@ -45375,7 +44166,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>44750</v>
+        <v>44780</v>
       </c>
       <c r="B220">
         <v>745</v>
@@ -45535,7 +44326,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>44812</v>
+        <v>44782</v>
       </c>
       <c r="B222">
         <v>736</v>
@@ -45615,7 +44406,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>44842</v>
+        <v>44783</v>
       </c>
       <c r="B223">
         <v>693</v>
@@ -45695,7 +44486,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>44873</v>
+        <v>44784</v>
       </c>
       <c r="B224">
         <v>682</v>
@@ -45775,7 +44566,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>44903</v>
+        <v>44785</v>
       </c>
       <c r="B225">
         <v>676</v>
@@ -45854,8 +44645,8 @@
       </c>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>178</v>
+      <c r="A226" s="1">
+        <v>44786</v>
       </c>
       <c r="B226">
         <v>656</v>
@@ -45934,8 +44725,8 @@
       </c>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>179</v>
+      <c r="A227" s="1">
+        <v>44787</v>
       </c>
       <c r="B227">
         <v>590</v>
@@ -46014,8 +44805,8 @@
       </c>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>180</v>
+      <c r="A228" s="1">
+        <v>44788</v>
       </c>
       <c r="B228">
         <v>583</v>
@@ -46094,8 +44885,8 @@
       </c>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>181</v>
+      <c r="A229" s="1">
+        <v>44789</v>
       </c>
       <c r="B229">
         <v>565</v>
@@ -46174,8 +44965,8 @@
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>182</v>
+      <c r="A230" s="1">
+        <v>44790</v>
       </c>
       <c r="B230">
         <v>549</v>
@@ -46254,8 +45045,8 @@
       </c>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>183</v>
+      <c r="A231" s="1">
+        <v>44791</v>
       </c>
       <c r="B231">
         <v>531</v>
@@ -46334,8 +45125,8 @@
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>184</v>
+      <c r="A232" s="1">
+        <v>44792</v>
       </c>
       <c r="B232">
         <v>536</v>
@@ -46414,8 +45205,8 @@
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>185</v>
+      <c r="A233" s="1">
+        <v>44793</v>
       </c>
       <c r="B233">
         <v>511</v>
@@ -46494,8 +45285,8 @@
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>186</v>
+      <c r="A234" s="1">
+        <v>44794</v>
       </c>
       <c r="B234">
         <v>461</v>
@@ -46574,8 +45365,8 @@
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>187</v>
+      <c r="A235" s="1">
+        <v>44795</v>
       </c>
       <c r="B235">
         <v>455</v>
@@ -46654,8 +45445,8 @@
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>188</v>
+      <c r="A236" s="1">
+        <v>44796</v>
       </c>
       <c r="B236">
         <v>435</v>
@@ -46734,8 +45525,8 @@
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>189</v>
+      <c r="A237" s="1">
+        <v>44797</v>
       </c>
       <c r="B237">
         <v>428</v>
@@ -46814,8 +45605,8 @@
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>190</v>
+      <c r="A238" s="1">
+        <v>44798</v>
       </c>
       <c r="B238">
         <v>418</v>
@@ -46894,8 +45685,8 @@
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>191</v>
+      <c r="A239" s="1">
+        <v>44799</v>
       </c>
       <c r="B239">
         <v>422</v>
@@ -46974,8 +45765,8 @@
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>192</v>
+      <c r="A240" s="1">
+        <v>44800</v>
       </c>
       <c r="B240">
         <v>409</v>
@@ -47054,8 +45845,8 @@
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>193</v>
+      <c r="A241" s="1">
+        <v>44801</v>
       </c>
       <c r="B241">
         <v>380</v>
@@ -47134,8 +45925,8 @@
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>194</v>
+      <c r="A242" s="1">
+        <v>44802</v>
       </c>
       <c r="B242">
         <v>377</v>
@@ -47214,8 +46005,8 @@
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>195</v>
+      <c r="A243" s="1">
+        <v>44803</v>
       </c>
       <c r="B243">
         <v>365</v>
@@ -47294,8 +46085,8 @@
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>196</v>
+      <c r="A244" s="1">
+        <v>44804</v>
       </c>
       <c r="B244">
         <v>360</v>
@@ -47375,7 +46166,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>44570</v>
+        <v>44805</v>
       </c>
       <c r="B245">
         <v>345</v>
@@ -47455,7 +46246,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>44601</v>
+        <v>44806</v>
       </c>
       <c r="B246">
         <v>340</v>
@@ -47535,7 +46326,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>44629</v>
+        <v>44807</v>
       </c>
       <c r="B247">
         <v>324</v>
@@ -47615,7 +46406,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>44660</v>
+        <v>44808</v>
       </c>
       <c r="B248">
         <v>290</v>
@@ -47695,7 +46486,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>44690</v>
+        <v>44809</v>
       </c>
       <c r="B249">
         <v>275</v>
@@ -47775,7 +46566,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>44721</v>
+        <v>44810</v>
       </c>
       <c r="B250">
         <v>268</v>
@@ -47855,7 +46646,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>44751</v>
+        <v>44811</v>
       </c>
       <c r="B251">
         <v>254</v>
@@ -47935,7 +46726,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>44782</v>
+        <v>44812</v>
       </c>
       <c r="B252">
         <v>256</v>
@@ -48095,7 +46886,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>44843</v>
+        <v>44814</v>
       </c>
       <c r="B254">
         <v>265</v>
@@ -48175,7 +46966,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>44874</v>
+        <v>44815</v>
       </c>
       <c r="B255">
         <v>241</v>
@@ -48255,7 +47046,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>44904</v>
+        <v>44816</v>
       </c>
       <c r="B256">
         <v>235</v>
@@ -48334,8 +47125,8 @@
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>197</v>
+      <c r="A257" s="1">
+        <v>44817</v>
       </c>
       <c r="B257">
         <v>237</v>
@@ -48414,8 +47205,8 @@
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>198</v>
+      <c r="A258" s="1">
+        <v>44818</v>
       </c>
       <c r="B258">
         <v>231</v>
@@ -48494,8 +47285,8 @@
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>199</v>
+      <c r="A259" s="1">
+        <v>44819</v>
       </c>
       <c r="B259">
         <v>216</v>
@@ -48574,8 +47365,8 @@
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>200</v>
+      <c r="A260" s="1">
+        <v>44820</v>
       </c>
       <c r="B260">
         <v>226</v>
@@ -48654,8 +47445,8 @@
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>201</v>
+      <c r="A261" s="1">
+        <v>44821</v>
       </c>
       <c r="B261">
         <v>218</v>
@@ -48734,8 +47525,8 @@
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>202</v>
+      <c r="A262" s="1">
+        <v>44822</v>
       </c>
       <c r="B262">
         <v>195</v>
@@ -48814,8 +47605,8 @@
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>203</v>
+      <c r="A263" s="1">
+        <v>44823</v>
       </c>
       <c r="B263">
         <v>191</v>
@@ -48894,8 +47685,8 @@
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>204</v>
+      <c r="A264" s="1">
+        <v>44824</v>
       </c>
       <c r="B264">
         <v>184</v>
@@ -48974,8 +47765,8 @@
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>205</v>
+      <c r="A265" s="1">
+        <v>44825</v>
       </c>
       <c r="B265">
         <v>194</v>
@@ -49054,8 +47845,8 @@
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>206</v>
+      <c r="A266" s="1">
+        <v>44826</v>
       </c>
       <c r="B266">
         <v>190</v>
@@ -49134,8 +47925,8 @@
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>207</v>
+      <c r="A267" s="1">
+        <v>44827</v>
       </c>
       <c r="B267">
         <v>197</v>
@@ -49214,8 +48005,8 @@
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>208</v>
+      <c r="A268" s="1">
+        <v>44828</v>
       </c>
       <c r="B268">
         <v>191</v>
@@ -49294,8 +48085,8 @@
       </c>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>209</v>
+      <c r="A269" s="1">
+        <v>44829</v>
       </c>
       <c r="B269">
         <v>176</v>
@@ -49374,8 +48165,8 @@
       </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>210</v>
+      <c r="A270" s="1">
+        <v>44830</v>
       </c>
       <c r="B270">
         <v>164</v>
@@ -49454,8 +48245,8 @@
       </c>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>211</v>
+      <c r="A271" s="1">
+        <v>44831</v>
       </c>
       <c r="B271">
         <v>166</v>
@@ -49534,8 +48325,8 @@
       </c>
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>212</v>
+      <c r="A272" s="1">
+        <v>44832</v>
       </c>
       <c r="B272">
         <v>166</v>
@@ -49614,8 +48405,8 @@
       </c>
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>213</v>
+      <c r="A273" s="1">
+        <v>44833</v>
       </c>
       <c r="B273">
         <v>161</v>
@@ -49694,8 +48485,8 @@
       </c>
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>214</v>
+      <c r="A274" s="1">
+        <v>44834</v>
       </c>
       <c r="B274">
         <v>165</v>
@@ -49775,7 +48566,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>44571</v>
+        <v>44835</v>
       </c>
       <c r="B275">
         <v>161</v>
@@ -49855,7 +48646,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>44602</v>
+        <v>44836</v>
       </c>
       <c r="B276">
         <v>162</v>
@@ -49935,7 +48726,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>44630</v>
+        <v>44837</v>
       </c>
       <c r="B277">
         <v>164</v>
@@ -50015,7 +48806,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>44661</v>
+        <v>44838</v>
       </c>
       <c r="B278">
         <v>166</v>
@@ -50095,7 +48886,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>44691</v>
+        <v>44839</v>
       </c>
       <c r="B279">
         <v>156</v>
@@ -50175,7 +48966,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>44722</v>
+        <v>44840</v>
       </c>
       <c r="B280">
         <v>156</v>
@@ -50255,7 +49046,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>44752</v>
+        <v>44841</v>
       </c>
       <c r="B281">
         <v>154</v>
@@ -50335,7 +49126,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>44783</v>
+        <v>44842</v>
       </c>
       <c r="B282">
         <v>148</v>
@@ -50415,7 +49206,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>44814</v>
+        <v>44843</v>
       </c>
       <c r="B283">
         <v>147</v>
@@ -50575,7 +49366,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>44875</v>
+        <v>44845</v>
       </c>
       <c r="B285">
         <v>154</v>
@@ -50655,7 +49446,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>44905</v>
+        <v>44846</v>
       </c>
       <c r="B286">
         <v>162</v>
@@ -50734,8 +49525,8 @@
       </c>
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>215</v>
+      <c r="A287" s="1">
+        <v>44847</v>
       </c>
       <c r="B287">
         <v>170</v>
@@ -50814,8 +49605,8 @@
       </c>
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>216</v>
+      <c r="A288" s="1">
+        <v>44848</v>
       </c>
       <c r="B288">
         <v>167</v>
@@ -50894,8 +49685,8 @@
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>217</v>
+      <c r="A289" s="1">
+        <v>44849</v>
       </c>
       <c r="B289">
         <v>168</v>
@@ -50974,8 +49765,8 @@
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>218</v>
+      <c r="A290" s="1">
+        <v>44850</v>
       </c>
       <c r="B290">
         <v>169</v>
@@ -51054,8 +49845,8 @@
       </c>
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>219</v>
+      <c r="A291" s="1">
+        <v>44851</v>
       </c>
       <c r="B291">
         <v>172</v>
@@ -51134,8 +49925,8 @@
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>220</v>
+      <c r="A292" s="1">
+        <v>44852</v>
       </c>
       <c r="B292">
         <v>175</v>
@@ -51214,8 +50005,8 @@
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>221</v>
+      <c r="A293" s="1">
+        <v>44853</v>
       </c>
       <c r="B293">
         <v>179</v>
@@ -51294,8 +50085,8 @@
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>222</v>
+      <c r="A294" s="1">
+        <v>44854</v>
       </c>
       <c r="B294">
         <v>182</v>
@@ -51374,8 +50165,8 @@
       </c>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>223</v>
+      <c r="A295" s="1">
+        <v>44855</v>
       </c>
       <c r="B295">
         <v>182</v>
@@ -51454,8 +50245,8 @@
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>224</v>
+      <c r="A296" s="1">
+        <v>44856</v>
       </c>
       <c r="B296">
         <v>179</v>
@@ -51534,8 +50325,8 @@
       </c>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>225</v>
+      <c r="A297" s="1">
+        <v>44857</v>
       </c>
       <c r="B297">
         <v>174</v>
@@ -51614,8 +50405,8 @@
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>226</v>
+      <c r="A298" s="1">
+        <v>44858</v>
       </c>
       <c r="B298">
         <v>176</v>
@@ -51694,8 +50485,8 @@
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>227</v>
+      <c r="A299" s="1">
+        <v>44859</v>
       </c>
       <c r="B299">
         <v>177</v>
@@ -51774,8 +50565,8 @@
       </c>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>228</v>
+      <c r="A300" s="1">
+        <v>44860</v>
       </c>
       <c r="B300">
         <v>172</v>
@@ -51854,8 +50645,8 @@
       </c>
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>229</v>
+      <c r="A301" s="1">
+        <v>44861</v>
       </c>
       <c r="B301">
         <v>177</v>
@@ -51934,8 +50725,8 @@
       </c>
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>230</v>
+      <c r="A302" s="1">
+        <v>44862</v>
       </c>
       <c r="B302">
         <v>181</v>
@@ -52014,8 +50805,8 @@
       </c>
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>231</v>
+      <c r="A303" s="1">
+        <v>44863</v>
       </c>
       <c r="B303">
         <v>177</v>
@@ -52094,8 +50885,8 @@
       </c>
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>232</v>
+      <c r="A304" s="1">
+        <v>44864</v>
       </c>
       <c r="B304">
         <v>171</v>
@@ -52174,8 +50965,8 @@
       </c>
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>233</v>
+      <c r="A305" s="1">
+        <v>44865</v>
       </c>
       <c r="B305">
         <v>178</v>
@@ -52255,7 +51046,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>44572</v>
+        <v>44866</v>
       </c>
       <c r="B306">
         <v>187</v>
@@ -52335,7 +51126,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>44603</v>
+        <v>44867</v>
       </c>
       <c r="B307">
         <v>200</v>
@@ -52415,7 +51206,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>44631</v>
+        <v>44868</v>
       </c>
       <c r="B308">
         <v>213</v>
@@ -52495,7 +51286,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>44662</v>
+        <v>44869</v>
       </c>
       <c r="B309">
         <v>220</v>
@@ -52575,7 +51366,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>44692</v>
+        <v>44870</v>
       </c>
       <c r="B310">
         <v>221</v>
@@ -52655,7 +51446,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>44723</v>
+        <v>44871</v>
       </c>
       <c r="B311">
         <v>228</v>
@@ -52735,7 +51526,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>44753</v>
+        <v>44872</v>
       </c>
       <c r="B312">
         <v>254</v>
@@ -52815,7 +51606,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>44784</v>
+        <v>44873</v>
       </c>
       <c r="B313">
         <v>283</v>
@@ -52895,7 +51686,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>44815</v>
+        <v>44874</v>
       </c>
       <c r="B314">
         <v>295</v>
@@ -52975,7 +51766,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>44845</v>
+        <v>44875</v>
       </c>
       <c r="B315">
         <v>324</v>
@@ -53135,7 +51926,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>44906</v>
+        <v>44877</v>
       </c>
       <c r="B317">
         <v>348</v>
@@ -53214,8 +52005,8 @@
       </c>
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>234</v>
+      <c r="A318" s="1">
+        <v>44878</v>
       </c>
       <c r="B318">
         <v>346</v>
@@ -53294,8 +52085,8 @@
       </c>
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>235</v>
+      <c r="A319" s="1">
+        <v>44879</v>
       </c>
       <c r="B319">
         <v>397</v>
@@ -53374,8 +52165,8 @@
       </c>
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>236</v>
+      <c r="A320" s="1">
+        <v>44880</v>
       </c>
       <c r="B320">
         <v>430</v>
@@ -53454,8 +52245,8 @@
       </c>
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>237</v>
+      <c r="A321" s="1">
+        <v>44881</v>
       </c>
       <c r="B321">
         <v>444</v>
@@ -53534,8 +52325,8 @@
       </c>
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>238</v>
+      <c r="A322" s="1">
+        <v>44882</v>
       </c>
       <c r="B322">
         <v>453</v>
@@ -53614,8 +52405,8 @@
       </c>
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>239</v>
+      <c r="A323" s="1">
+        <v>44883</v>
       </c>
       <c r="B323">
         <v>474</v>
@@ -53694,8 +52485,8 @@
       </c>
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>240</v>
+      <c r="A324" s="1">
+        <v>44884</v>
       </c>
       <c r="B324">
         <v>473</v>
@@ -53774,8 +52565,8 @@
       </c>
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>241</v>
+      <c r="A325" s="1">
+        <v>44885</v>
       </c>
       <c r="B325">
         <v>466</v>
@@ -53854,8 +52645,8 @@
       </c>
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>242</v>
+      <c r="A326" s="1">
+        <v>44886</v>
       </c>
       <c r="B326">
         <v>495</v>
@@ -53934,8 +52725,8 @@
       </c>
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>243</v>
+      <c r="A327" s="1">
+        <v>44887</v>
       </c>
       <c r="B327">
         <v>520</v>
@@ -54014,8 +52805,8 @@
       </c>
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>244</v>
+      <c r="A328" s="1">
+        <v>44888</v>
       </c>
       <c r="B328">
         <v>545</v>
@@ -54094,8 +52885,8 @@
       </c>
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>245</v>
+      <c r="A329" s="1">
+        <v>44889</v>
       </c>
       <c r="B329">
         <v>530</v>
@@ -54174,8 +52965,8 @@
       </c>
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>246</v>
+      <c r="A330" s="1">
+        <v>44890</v>
       </c>
       <c r="B330">
         <v>532</v>
@@ -54254,8 +53045,8 @@
       </c>
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>247</v>
+      <c r="A331" s="1">
+        <v>44891</v>
       </c>
       <c r="B331">
         <v>522</v>
@@ -54334,8 +53125,8 @@
       </c>
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>248</v>
+      <c r="A332" s="1">
+        <v>44892</v>
       </c>
       <c r="B332">
         <v>515</v>
@@ -54414,8 +53205,8 @@
       </c>
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>249</v>
+      <c r="A333" s="1">
+        <v>44893</v>
       </c>
       <c r="B333">
         <v>549</v>
@@ -54494,8 +53285,8 @@
       </c>
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>250</v>
+      <c r="A334" s="1">
+        <v>44894</v>
       </c>
       <c r="B334">
         <v>569</v>
@@ -54574,8 +53365,8 @@
       </c>
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>251</v>
+      <c r="A335" s="1">
+        <v>44895</v>
       </c>
       <c r="B335">
         <v>603</v>
@@ -54655,7 +53446,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>44573</v>
+        <v>44896</v>
       </c>
       <c r="B336">
         <v>623</v>
@@ -54735,7 +53526,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>44604</v>
+        <v>44897</v>
       </c>
       <c r="B337">
         <v>645</v>
@@ -54815,7 +53606,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>44632</v>
+        <v>44898</v>
       </c>
       <c r="B338">
         <v>641</v>
@@ -54895,7 +53686,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>44663</v>
+        <v>44899</v>
       </c>
       <c r="B339">
         <v>641</v>
@@ -54975,7 +53766,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>44693</v>
+        <v>44900</v>
       </c>
       <c r="B340">
         <v>666</v>
@@ -55055,7 +53846,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>44724</v>
+        <v>44901</v>
       </c>
       <c r="B341">
         <v>686</v>
@@ -55135,7 +53926,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>44754</v>
+        <v>44902</v>
       </c>
       <c r="B342">
         <v>685</v>
@@ -55215,7 +54006,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>44785</v>
+        <v>44903</v>
       </c>
       <c r="B343">
         <v>678</v>
@@ -55295,7 +54086,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>44816</v>
+        <v>44904</v>
       </c>
       <c r="B344">
         <v>700</v>
@@ -55375,7 +54166,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>44846</v>
+        <v>44905</v>
       </c>
       <c r="B345">
         <v>691</v>
@@ -55455,7 +54246,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>44877</v>
+        <v>44906</v>
       </c>
       <c r="B346">
         <v>679</v>
@@ -55614,8 +54405,8 @@
       </c>
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>252</v>
+      <c r="A348" s="1">
+        <v>44908</v>
       </c>
       <c r="B348">
         <v>718</v>
@@ -55694,8 +54485,8 @@
       </c>
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>253</v>
+      <c r="A349" s="1">
+        <v>44909</v>
       </c>
       <c r="B349">
         <v>722</v>
@@ -55774,8 +54565,8 @@
       </c>
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>254</v>
+      <c r="A350" s="1">
+        <v>44910</v>
       </c>
       <c r="B350">
         <v>729</v>
@@ -55854,8 +54645,8 @@
       </c>
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>255</v>
+      <c r="A351" s="1">
+        <v>44911</v>
       </c>
       <c r="B351">
         <v>720</v>
@@ -55934,8 +54725,8 @@
       </c>
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>256</v>
+      <c r="A352" s="1">
+        <v>44912</v>
       </c>
       <c r="B352">
         <v>722</v>
@@ -56014,8 +54805,8 @@
       </c>
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>257</v>
+      <c r="A353" s="1">
+        <v>44913</v>
       </c>
       <c r="B353">
         <v>717</v>
@@ -56094,8 +54885,8 @@
       </c>
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>258</v>
+      <c r="A354" s="1">
+        <v>44914</v>
       </c>
       <c r="B354">
         <v>753</v>
@@ -56174,8 +54965,8 @@
       </c>
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>259</v>
+      <c r="A355" s="1">
+        <v>44915</v>
       </c>
       <c r="B355">
         <v>754</v>
@@ -56254,8 +55045,8 @@
       </c>
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>260</v>
+      <c r="A356" s="1">
+        <v>44916</v>
       </c>
       <c r="B356">
         <v>773</v>
@@ -56334,8 +55125,8 @@
       </c>
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>261</v>
+      <c r="A357" s="1">
+        <v>44917</v>
       </c>
       <c r="B357">
         <v>782</v>
@@ -56414,8 +55205,8 @@
       </c>
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>262</v>
+      <c r="A358" s="1">
+        <v>44918</v>
       </c>
       <c r="B358">
         <v>795</v>
@@ -56494,8 +55285,8 @@
       </c>
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>263</v>
+      <c r="A359" s="1">
+        <v>44919</v>
       </c>
       <c r="B359">
         <v>783</v>
@@ -56574,8 +55365,8 @@
       </c>
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>264</v>
+      <c r="A360" s="1">
+        <v>44920</v>
       </c>
       <c r="B360">
         <v>766</v>
@@ -56654,8 +55445,8 @@
       </c>
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>265</v>
+      <c r="A361" s="1">
+        <v>44921</v>
       </c>
       <c r="B361">
         <v>746</v>
@@ -56734,8 +55525,8 @@
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>266</v>
+      <c r="A362" s="1">
+        <v>44922</v>
       </c>
       <c r="B362">
         <v>725</v>
@@ -56814,8 +55605,8 @@
       </c>
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>267</v>
+      <c r="A363" s="1">
+        <v>44923</v>
       </c>
       <c r="B363">
         <v>700</v>
@@ -56894,8 +55685,8 @@
       </c>
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>268</v>
+      <c r="A364" s="1">
+        <v>44924</v>
       </c>
       <c r="B364">
         <v>785</v>
@@ -56974,8 +55765,8 @@
       </c>
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>269</v>
+      <c r="A365" s="1">
+        <v>44925</v>
       </c>
       <c r="B365">
         <v>797</v>
@@ -57054,8 +55845,8 @@
       </c>
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>270</v>
+      <c r="A366" s="1">
+        <v>44926</v>
       </c>
       <c r="B366">
         <v>780</v>
@@ -57215,7 +56006,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>44958</v>
+        <v>44928</v>
       </c>
       <c r="B368">
         <v>757</v>
@@ -57295,7 +56086,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>44986</v>
+        <v>44929</v>
       </c>
       <c r="B369">
         <v>742</v>
@@ -57375,7 +56166,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>45017</v>
+        <v>44930</v>
       </c>
       <c r="B370">
         <v>732</v>
@@ -57455,7 +56246,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>45047</v>
+        <v>44931</v>
       </c>
       <c r="B371">
         <v>697</v>
@@ -57535,7 +56326,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="B372">
         <v>675</v>
@@ -57615,7 +56406,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>45108</v>
+        <v>44933</v>
       </c>
       <c r="B373">
         <v>658</v>
@@ -57695,7 +56486,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>45139</v>
+        <v>44934</v>
       </c>
       <c r="B374">
         <v>625</v>
@@ -57775,7 +56566,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>45170</v>
+        <v>44935</v>
       </c>
       <c r="B375">
         <v>602</v>
@@ -57855,7 +56646,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>45200</v>
+        <v>44936</v>
       </c>
       <c r="B376">
         <v>580</v>
@@ -57935,7 +56726,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>45231</v>
+        <v>44937</v>
       </c>
       <c r="B377">
         <v>576</v>
@@ -58015,7 +56806,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>45261</v>
+        <v>44938</v>
       </c>
       <c r="B378">
         <v>558</v>
@@ -58094,8 +56885,8 @@
       </c>
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>271</v>
+      <c r="A379" s="1">
+        <v>44939</v>
       </c>
       <c r="B379">
         <v>511</v>
@@ -58174,8 +56965,8 @@
       </c>
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>272</v>
+      <c r="A380" s="1">
+        <v>44940</v>
       </c>
       <c r="B380">
         <v>482</v>
@@ -58254,8 +57045,8 @@
       </c>
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>273</v>
+      <c r="A381" s="1">
+        <v>44941</v>
       </c>
       <c r="B381">
         <v>466</v>
@@ -58334,8 +57125,8 @@
       </c>
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>274</v>
+      <c r="A382" s="1">
+        <v>44942</v>
       </c>
       <c r="B382">
         <v>417</v>
@@ -58414,8 +57205,8 @@
       </c>
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>275</v>
+      <c r="A383" s="1">
+        <v>44943</v>
       </c>
       <c r="B383">
         <v>397</v>
@@ -58494,8 +57285,8 @@
       </c>
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>276</v>
+      <c r="A384" s="1">
+        <v>44944</v>
       </c>
       <c r="B384">
         <v>378</v>
@@ -58574,8 +57365,8 @@
       </c>
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>277</v>
+      <c r="A385" s="1">
+        <v>44945</v>
       </c>
       <c r="B385">
         <v>355</v>
@@ -58654,8 +57445,8 @@
       </c>
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>278</v>
+      <c r="A386" s="1">
+        <v>44946</v>
       </c>
       <c r="B386">
         <v>343</v>
@@ -58734,8 +57525,8 @@
       </c>
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>279</v>
+      <c r="A387" s="1">
+        <v>44947</v>
       </c>
       <c r="B387">
         <v>327</v>
@@ -58814,8 +57605,8 @@
       </c>
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>280</v>
+      <c r="A388" s="1">
+        <v>44948</v>
       </c>
       <c r="B388">
         <v>309</v>
@@ -58894,8 +57685,8 @@
       </c>
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>281</v>
+      <c r="A389" s="1">
+        <v>44949</v>
       </c>
       <c r="B389">
         <v>286</v>
@@ -58974,8 +57765,8 @@
       </c>
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>282</v>
+      <c r="A390" s="1">
+        <v>44950</v>
       </c>
       <c r="B390">
         <v>261</v>
@@ -59054,8 +57845,8 @@
       </c>
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>283</v>
+      <c r="A391" s="1">
+        <v>44951</v>
       </c>
       <c r="B391">
         <v>250</v>
@@ -59134,8 +57925,8 @@
       </c>
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>284</v>
+      <c r="A392" s="1">
+        <v>44952</v>
       </c>
       <c r="B392">
         <v>230</v>
@@ -59214,8 +58005,8 @@
       </c>
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>285</v>
+      <c r="A393" s="1">
+        <v>44953</v>
       </c>
       <c r="B393">
         <v>227</v>
@@ -59294,8 +58085,8 @@
       </c>
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>286</v>
+      <c r="A394" s="1">
+        <v>44954</v>
       </c>
       <c r="B394">
         <v>215</v>
@@ -59374,8 +58165,8 @@
       </c>
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>287</v>
+      <c r="A395" s="1">
+        <v>44955</v>
       </c>
       <c r="B395">
         <v>207</v>
@@ -59454,8 +58245,8 @@
       </c>
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>288</v>
+      <c r="A396" s="1">
+        <v>44956</v>
       </c>
       <c r="B396">
         <v>206</v>
@@ -59534,8 +58325,8 @@
       </c>
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>289</v>
+      <c r="A397" s="1">
+        <v>44957</v>
       </c>
       <c r="B397">
         <v>202</v>
@@ -59615,7 +58406,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>44928</v>
+        <v>44958</v>
       </c>
       <c r="B398">
         <v>195</v>
@@ -59775,7 +58566,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>44987</v>
+        <v>44960</v>
       </c>
       <c r="B400">
         <v>172</v>
@@ -59855,7 +58646,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>45018</v>
+        <v>44961</v>
       </c>
       <c r="B401">
         <v>163</v>
@@ -59935,7 +58726,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>45048</v>
+        <v>44962</v>
       </c>
       <c r="B402">
         <v>159</v>
@@ -60015,7 +58806,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="B403">
         <v>154</v>
@@ -60095,7 +58886,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>45109</v>
+        <v>44964</v>
       </c>
       <c r="B404">
         <v>162</v>
@@ -60175,7 +58966,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>45140</v>
+        <v>44965</v>
       </c>
       <c r="B405">
         <v>150</v>
@@ -60255,7 +59046,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>45171</v>
+        <v>44966</v>
       </c>
       <c r="B406">
         <v>147</v>
@@ -60335,7 +59126,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>45201</v>
+        <v>44967</v>
       </c>
       <c r="B407">
         <v>154</v>
@@ -60415,7 +59206,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>45232</v>
+        <v>44968</v>
       </c>
       <c r="B408">
         <v>151</v>
@@ -60495,7 +59286,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>45262</v>
+        <v>44969</v>
       </c>
       <c r="B409">
         <v>149</v>
@@ -60574,8 +59365,8 @@
       </c>
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>290</v>
+      <c r="A410" s="1">
+        <v>44970</v>
       </c>
       <c r="B410">
         <v>151</v>
@@ -60654,8 +59445,8 @@
       </c>
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>291</v>
+      <c r="A411" s="1">
+        <v>44971</v>
       </c>
       <c r="B411">
         <v>154</v>
@@ -60734,8 +59525,8 @@
       </c>
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>292</v>
+      <c r="A412" s="1">
+        <v>44972</v>
       </c>
       <c r="B412">
         <v>148</v>
@@ -60814,8 +59605,8 @@
       </c>
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>293</v>
+      <c r="A413" s="1">
+        <v>44973</v>
       </c>
       <c r="B413">
         <v>147</v>
@@ -60894,8 +59685,8 @@
       </c>
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>294</v>
+      <c r="A414" s="1">
+        <v>44974</v>
       </c>
       <c r="B414">
         <v>149</v>
@@ -60974,8 +59765,8 @@
       </c>
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>295</v>
+      <c r="A415" s="1">
+        <v>44975</v>
       </c>
       <c r="B415">
         <v>147</v>
@@ -61054,8 +59845,8 @@
       </c>
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>296</v>
+      <c r="A416" s="1">
+        <v>44976</v>
       </c>
       <c r="B416">
         <v>146</v>
@@ -61134,8 +59925,8 @@
       </c>
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>297</v>
+      <c r="A417" s="1">
+        <v>44977</v>
       </c>
       <c r="B417">
         <v>157</v>
@@ -61214,8 +60005,8 @@
       </c>
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>298</v>
+      <c r="A418" s="1">
+        <v>44978</v>
       </c>
       <c r="B418">
         <v>165</v>
@@ -61294,8 +60085,8 @@
       </c>
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>299</v>
+      <c r="A419" s="1">
+        <v>44979</v>
       </c>
       <c r="B419">
         <v>157</v>
@@ -61374,8 +60165,8 @@
       </c>
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>300</v>
+      <c r="A420" s="1">
+        <v>44980</v>
       </c>
       <c r="B420">
         <v>156</v>
@@ -61454,8 +60245,8 @@
       </c>
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>301</v>
+      <c r="A421" s="1">
+        <v>44981</v>
       </c>
       <c r="B421">
         <v>150</v>
@@ -61534,8 +60325,8 @@
       </c>
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>302</v>
+      <c r="A422" s="1">
+        <v>44982</v>
       </c>
       <c r="B422">
         <v>145</v>
@@ -61614,8 +60405,8 @@
       </c>
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>303</v>
+      <c r="A423" s="1">
+        <v>44983</v>
       </c>
       <c r="B423">
         <v>138</v>
@@ -61694,8 +60485,8 @@
       </c>
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>304</v>
+      <c r="A424" s="1">
+        <v>44984</v>
       </c>
       <c r="B424">
         <v>140</v>
@@ -61774,8 +60565,8 @@
       </c>
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>305</v>
+      <c r="A425" s="1">
+        <v>44985</v>
       </c>
       <c r="B425">
         <v>146</v>
@@ -61855,7 +60646,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>44929</v>
+        <v>44986</v>
       </c>
       <c r="B426">
         <v>152</v>
@@ -61935,7 +60726,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>44960</v>
+        <v>44987</v>
       </c>
       <c r="B427">
         <v>153</v>
@@ -62095,7 +60886,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>45019</v>
+        <v>44989</v>
       </c>
       <c r="B429">
         <v>155</v>
@@ -62175,7 +60966,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>45049</v>
+        <v>44990</v>
       </c>
       <c r="B430">
         <v>148</v>
@@ -62255,7 +61046,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>45080</v>
+        <v>44991</v>
       </c>
       <c r="B431">
         <v>149</v>
@@ -62335,7 +61126,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>45110</v>
+        <v>44992</v>
       </c>
       <c r="B432">
         <v>153</v>
@@ -62415,7 +61206,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>45141</v>
+        <v>44993</v>
       </c>
       <c r="B433">
         <v>156</v>
@@ -62495,7 +61286,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>45172</v>
+        <v>44994</v>
       </c>
       <c r="B434">
         <v>153</v>
@@ -62575,7 +61366,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>45202</v>
+        <v>44995</v>
       </c>
       <c r="B435">
         <v>161</v>
@@ -62655,7 +61446,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>45233</v>
+        <v>44996</v>
       </c>
       <c r="B436">
         <v>157</v>
@@ -62735,7 +61526,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>45263</v>
+        <v>44997</v>
       </c>
       <c r="B437">
         <v>154</v>
@@ -62814,8 +61605,8 @@
       </c>
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>306</v>
+      <c r="A438" s="1">
+        <v>44998</v>
       </c>
       <c r="B438">
         <v>154</v>
@@ -62894,8 +61685,8 @@
       </c>
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>307</v>
+      <c r="A439" s="1">
+        <v>44999</v>
       </c>
       <c r="B439">
         <v>172</v>
@@ -62974,8 +61765,8 @@
       </c>
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>308</v>
+      <c r="A440" s="1">
+        <v>45000</v>
       </c>
       <c r="B440">
         <v>173</v>
@@ -63054,8 +61845,8 @@
       </c>
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>309</v>
+      <c r="A441" s="1">
+        <v>45001</v>
       </c>
       <c r="B441">
         <v>170</v>
@@ -63134,8 +61925,8 @@
       </c>
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>310</v>
+      <c r="A442" s="1">
+        <v>45002</v>
       </c>
       <c r="B442">
         <v>175</v>
@@ -63214,8 +62005,8 @@
       </c>
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>311</v>
+      <c r="A443" s="1">
+        <v>45003</v>
       </c>
       <c r="B443">
         <v>170</v>
@@ -63294,8 +62085,8 @@
       </c>
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>312</v>
+      <c r="A444" s="1">
+        <v>45004</v>
       </c>
       <c r="B444">
         <v>172</v>
@@ -63374,8 +62165,8 @@
       </c>
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>313</v>
+      <c r="A445" s="1">
+        <v>45005</v>
       </c>
       <c r="B445">
         <v>188</v>
@@ -63454,8 +62245,8 @@
       </c>
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>314</v>
+      <c r="A446" s="1">
+        <v>45006</v>
       </c>
       <c r="B446">
         <v>205</v>
@@ -63534,8 +62325,8 @@
       </c>
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>315</v>
+      <c r="A447" s="1">
+        <v>45007</v>
       </c>
       <c r="B447">
         <v>203</v>
@@ -63614,8 +62405,8 @@
       </c>
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>316</v>
+      <c r="A448" s="1">
+        <v>45008</v>
       </c>
       <c r="B448">
         <v>200</v>
@@ -63694,8 +62485,8 @@
       </c>
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>317</v>
+      <c r="A449" s="1">
+        <v>45009</v>
       </c>
       <c r="B449">
         <v>203</v>
@@ -63774,8 +62565,8 @@
       </c>
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>318</v>
+      <c r="A450" s="1">
+        <v>45010</v>
       </c>
       <c r="B450">
         <v>196</v>
@@ -63854,8 +62645,8 @@
       </c>
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>319</v>
+      <c r="A451" s="1">
+        <v>45011</v>
       </c>
       <c r="B451">
         <v>187</v>
@@ -63934,8 +62725,8 @@
       </c>
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>320</v>
+      <c r="A452" s="1">
+        <v>45012</v>
       </c>
       <c r="B452">
         <v>190</v>
@@ -64014,8 +62805,8 @@
       </c>
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>321</v>
+      <c r="A453" s="1">
+        <v>45013</v>
       </c>
       <c r="B453">
         <v>188</v>
@@ -64094,8 +62885,8 @@
       </c>
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>322</v>
+      <c r="A454" s="1">
+        <v>45014</v>
       </c>
       <c r="B454">
         <v>198</v>
@@ -64174,8 +62965,8 @@
       </c>
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>323</v>
+      <c r="A455" s="1">
+        <v>45015</v>
       </c>
       <c r="B455">
         <v>209</v>
@@ -64254,8 +63045,8 @@
       </c>
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>324</v>
+      <c r="A456" s="1">
+        <v>45016</v>
       </c>
       <c r="B456">
         <v>208</v>
@@ -64335,7 +63126,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>44930</v>
+        <v>45017</v>
       </c>
       <c r="B457">
         <v>208</v>
@@ -64415,7 +63206,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>44961</v>
+        <v>45018</v>
       </c>
       <c r="B458">
         <v>181</v>
@@ -64495,7 +63286,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>44989</v>
+        <v>45019</v>
       </c>
       <c r="B459">
         <v>206</v>
@@ -64655,7 +63446,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="B461">
         <v>228</v>
@@ -64735,7 +63526,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>45081</v>
+        <v>45022</v>
       </c>
       <c r="B462">
         <v>248</v>
@@ -64815,7 +63606,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>45111</v>
+        <v>45023</v>
       </c>
       <c r="B463">
         <v>251</v>
@@ -64895,7 +63686,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>45142</v>
+        <v>45024</v>
       </c>
       <c r="B464">
         <v>252</v>
@@ -64975,7 +63766,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>45173</v>
+        <v>45025</v>
       </c>
       <c r="B465">
         <v>248</v>
@@ -65055,7 +63846,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>45203</v>
+        <v>45026</v>
       </c>
       <c r="B466">
         <v>225</v>
@@ -65135,7 +63926,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>45234</v>
+        <v>45027</v>
       </c>
       <c r="B467">
         <v>268</v>
@@ -65215,7 +64006,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>45264</v>
+        <v>45028</v>
       </c>
       <c r="B468">
         <v>292</v>
@@ -65294,8 +64085,8 @@
       </c>
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>325</v>
+      <c r="A469" s="1">
+        <v>45029</v>
       </c>
       <c r="B469">
         <v>294</v>
@@ -65374,8 +64165,8 @@
       </c>
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>326</v>
+      <c r="A470" s="1">
+        <v>45030</v>
       </c>
       <c r="B470">
         <v>322</v>
@@ -65454,8 +64245,8 @@
       </c>
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>327</v>
+      <c r="A471" s="1">
+        <v>45031</v>
       </c>
       <c r="B471">
         <v>322</v>
@@ -65534,8 +64325,8 @@
       </c>
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>328</v>
+      <c r="A472" s="1">
+        <v>45032</v>
       </c>
       <c r="B472">
         <v>302</v>
@@ -65614,8 +64405,8 @@
       </c>
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>329</v>
+      <c r="A473" s="1">
+        <v>45033</v>
       </c>
       <c r="B473">
         <v>328</v>
@@ -65694,8 +64485,8 @@
       </c>
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>330</v>
+      <c r="A474" s="1">
+        <v>45034</v>
       </c>
       <c r="B474">
         <v>341</v>
@@ -65774,8 +64565,8 @@
       </c>
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>331</v>
+      <c r="A475" s="1">
+        <v>45035</v>
       </c>
       <c r="B475">
         <v>342</v>
@@ -65854,8 +64645,8 @@
       </c>
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>332</v>
+      <c r="A476" s="1">
+        <v>45036</v>
       </c>
       <c r="B476">
         <v>345</v>
@@ -65934,8 +64725,8 @@
       </c>
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>333</v>
+      <c r="A477" s="1">
+        <v>45037</v>
       </c>
       <c r="B477">
         <v>374</v>
@@ -66014,8 +64805,8 @@
       </c>
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>334</v>
+      <c r="A478" s="1">
+        <v>45038</v>
       </c>
       <c r="B478">
         <v>362</v>
@@ -66094,8 +64885,8 @@
       </c>
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>335</v>
+      <c r="A479" s="1">
+        <v>45039</v>
       </c>
       <c r="B479">
         <v>334</v>
@@ -66174,8 +64965,8 @@
       </c>
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>336</v>
+      <c r="A480" s="1">
+        <v>45040</v>
       </c>
       <c r="B480">
         <v>370</v>
@@ -66254,8 +65045,8 @@
       </c>
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>337</v>
+      <c r="A481" s="1">
+        <v>45041</v>
       </c>
       <c r="B481">
         <v>345</v>
@@ -66334,8 +65125,8 @@
       </c>
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>338</v>
+      <c r="A482" s="1">
+        <v>45042</v>
       </c>
       <c r="B482">
         <v>351</v>
@@ -66414,8 +65205,8 @@
       </c>
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>339</v>
+      <c r="A483" s="1">
+        <v>45043</v>
       </c>
       <c r="B483">
         <v>370</v>
@@ -66494,8 +65285,8 @@
       </c>
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>340</v>
+      <c r="A484" s="1">
+        <v>45044</v>
       </c>
       <c r="B484">
         <v>390</v>
@@ -66574,8 +65365,8 @@
       </c>
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>341</v>
+      <c r="A485" s="1">
+        <v>45045</v>
       </c>
       <c r="B485">
         <v>381</v>
@@ -66654,8 +65445,8 @@
       </c>
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>342</v>
+      <c r="A486" s="1">
+        <v>45046</v>
       </c>
       <c r="B486">
         <v>355</v>
@@ -66735,7 +65526,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>44931</v>
+        <v>45047</v>
       </c>
       <c r="B487">
         <v>359</v>
@@ -66815,7 +65606,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>44962</v>
+        <v>45048</v>
       </c>
       <c r="B488">
         <v>351</v>
@@ -66895,7 +65686,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>44990</v>
+        <v>45049</v>
       </c>
       <c r="B489">
         <v>343</v>
@@ -66975,7 +65766,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>45021</v>
+        <v>45050</v>
       </c>
       <c r="B490">
         <v>342</v>
@@ -67135,7 +65926,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="B492">
         <v>348</v>
@@ -67215,7 +66006,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>45112</v>
+        <v>45053</v>
       </c>
       <c r="B493">
         <v>325</v>
@@ -67295,7 +66086,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>45143</v>
+        <v>45054</v>
       </c>
       <c r="B494">
         <v>345</v>
@@ -67375,7 +66166,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>45174</v>
+        <v>45055</v>
       </c>
       <c r="B495">
         <v>346</v>
@@ -67455,7 +66246,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>45204</v>
+        <v>45056</v>
       </c>
       <c r="B496">
         <v>350</v>
@@ -67535,7 +66326,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>45235</v>
+        <v>45057</v>
       </c>
       <c r="B497">
         <v>354</v>
@@ -67615,7 +66406,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>45265</v>
+        <v>45058</v>
       </c>
       <c r="B498">
         <v>381</v>
@@ -67694,8 +66485,8 @@
       </c>
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>343</v>
+      <c r="A499" s="1">
+        <v>45059</v>
       </c>
       <c r="B499">
         <v>369</v>
@@ -67774,8 +66565,8 @@
       </c>
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>344</v>
+      <c r="A500" s="1">
+        <v>45060</v>
       </c>
       <c r="B500">
         <v>349</v>
@@ -67854,8 +66645,8 @@
       </c>
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>345</v>
+      <c r="A501" s="1">
+        <v>45061</v>
       </c>
       <c r="B501">
         <v>399</v>
@@ -67934,8 +66725,8 @@
       </c>
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>346</v>
+      <c r="A502" s="1">
+        <v>45062</v>
       </c>
       <c r="B502">
         <v>406</v>
@@ -68014,8 +66805,8 @@
       </c>
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>347</v>
+      <c r="A503" s="1">
+        <v>45063</v>
       </c>
       <c r="B503">
         <v>416</v>
@@ -68094,8 +66885,8 @@
       </c>
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>348</v>
+      <c r="A504" s="1">
+        <v>45064</v>
       </c>
       <c r="B504">
         <v>420</v>
@@ -68174,8 +66965,8 @@
       </c>
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>349</v>
+      <c r="A505" s="1">
+        <v>45065</v>
       </c>
       <c r="B505">
         <v>434</v>
@@ -68254,8 +67045,8 @@
       </c>
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>350</v>
+      <c r="A506" s="1">
+        <v>45066</v>
       </c>
       <c r="B506">
         <v>427</v>
@@ -68334,8 +67125,8 @@
       </c>
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>351</v>
+      <c r="A507" s="1">
+        <v>45067</v>
       </c>
       <c r="B507">
         <v>395</v>
@@ -68414,8 +67205,8 @@
       </c>
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>352</v>
+      <c r="A508" s="1">
+        <v>45068</v>
       </c>
       <c r="B508">
         <v>422</v>
@@ -68494,8 +67285,8 @@
       </c>
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>353</v>
+      <c r="A509" s="1">
+        <v>45069</v>
       </c>
       <c r="B509">
         <v>429</v>
@@ -68574,8 +67365,8 @@
       </c>
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>354</v>
+      <c r="A510" s="1">
+        <v>45070</v>
       </c>
       <c r="B510">
         <v>441</v>
@@ -68654,8 +67445,8 @@
       </c>
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>355</v>
+      <c r="A511" s="1">
+        <v>45071</v>
       </c>
       <c r="B511">
         <v>440</v>
@@ -68734,8 +67525,8 @@
       </c>
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>356</v>
+      <c r="A512" s="1">
+        <v>45072</v>
       </c>
       <c r="B512">
         <v>453</v>
@@ -68814,8 +67605,8 @@
       </c>
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>357</v>
+      <c r="A513" s="1">
+        <v>45073</v>
       </c>
       <c r="B513">
         <v>443</v>
@@ -68894,8 +67685,8 @@
       </c>
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>358</v>
+      <c r="A514" s="1">
+        <v>45074</v>
       </c>
       <c r="B514">
         <v>409</v>
@@ -68974,8 +67765,8 @@
       </c>
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>359</v>
+      <c r="A515" s="1">
+        <v>45075</v>
       </c>
       <c r="B515">
         <v>431</v>
@@ -69054,8 +67845,8 @@
       </c>
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>360</v>
+      <c r="A516" s="1">
+        <v>45076</v>
       </c>
       <c r="B516">
         <v>431</v>
@@ -69134,8 +67925,8 @@
       </c>
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>361</v>
+      <c r="A517" s="1">
+        <v>45077</v>
       </c>
       <c r="B517">
         <v>429</v>
@@ -69215,7 +68006,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>44932</v>
+        <v>45078</v>
       </c>
       <c r="B518">
         <v>420</v>
@@ -69295,7 +68086,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>44963</v>
+        <v>45079</v>
       </c>
       <c r="B519">
         <v>430</v>
@@ -69375,7 +68166,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>44991</v>
+        <v>45080</v>
       </c>
       <c r="B520">
         <v>417</v>
@@ -69455,7 +68246,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>45022</v>
+        <v>45081</v>
       </c>
       <c r="B521">
         <v>381</v>
@@ -69535,7 +68326,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>45052</v>
+        <v>45082</v>
       </c>
       <c r="B522">
         <v>394</v>
@@ -69695,7 +68486,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>45113</v>
+        <v>45084</v>
       </c>
       <c r="B524">
         <v>384</v>
@@ -69775,7 +68566,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>45144</v>
+        <v>45085</v>
       </c>
       <c r="B525">
         <v>377</v>
@@ -69855,7 +68646,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>45175</v>
+        <v>45086</v>
       </c>
       <c r="B526">
         <v>391</v>
@@ -69935,7 +68726,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>45205</v>
+        <v>45087</v>
       </c>
       <c r="B527">
         <v>380</v>
@@ -70015,7 +68806,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>45236</v>
+        <v>45088</v>
       </c>
       <c r="B528">
         <v>356</v>
@@ -70095,7 +68886,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>45266</v>
+        <v>45089</v>
       </c>
       <c r="B529">
         <v>322</v>
@@ -70174,8 +68965,8 @@
       </c>
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>362</v>
+      <c r="A530" s="1">
+        <v>45090</v>
       </c>
       <c r="B530">
         <v>318</v>
@@ -70254,8 +69045,8 @@
       </c>
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>363</v>
+      <c r="A531" s="1">
+        <v>45091</v>
       </c>
       <c r="B531">
         <v>308</v>
@@ -70334,8 +69125,8 @@
       </c>
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>364</v>
+      <c r="A532" s="1">
+        <v>45092</v>
       </c>
       <c r="B532">
         <v>304</v>
@@ -70414,8 +69205,8 @@
       </c>
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>365</v>
+      <c r="A533" s="1">
+        <v>45093</v>
       </c>
       <c r="B533">
         <v>307</v>
@@ -70494,8 +69285,8 @@
       </c>
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>366</v>
+      <c r="A534" s="1">
+        <v>45094</v>
       </c>
       <c r="B534">
         <v>296</v>
@@ -70574,8 +69365,8 @@
       </c>
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>367</v>
+      <c r="A535" s="1">
+        <v>45095</v>
       </c>
       <c r="B535">
         <v>271</v>
@@ -70654,8 +69445,8 @@
       </c>
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>368</v>
+      <c r="A536" s="1">
+        <v>45096</v>
       </c>
       <c r="B536">
         <v>262</v>
@@ -70734,8 +69525,8 @@
       </c>
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>369</v>
+      <c r="A537" s="1">
+        <v>45097</v>
       </c>
       <c r="B537">
         <v>259</v>
@@ -70814,8 +69605,8 @@
       </c>
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>370</v>
+      <c r="A538" s="1">
+        <v>45098</v>
       </c>
       <c r="B538">
         <v>244</v>
@@ -70894,8 +69685,8 @@
       </c>
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>371</v>
+      <c r="A539" s="1">
+        <v>45099</v>
       </c>
       <c r="B539">
         <v>235</v>
@@ -70974,8 +69765,8 @@
       </c>
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>372</v>
+      <c r="A540" s="1">
+        <v>45100</v>
       </c>
       <c r="B540">
         <v>236</v>
@@ -71054,8 +69845,8 @@
       </c>
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>373</v>
+      <c r="A541" s="1">
+        <v>45101</v>
       </c>
       <c r="B541">
         <v>232</v>
@@ -71134,8 +69925,8 @@
       </c>
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>374</v>
+      <c r="A542" s="1">
+        <v>45102</v>
       </c>
       <c r="B542">
         <v>215</v>
@@ -71214,8 +70005,8 @@
       </c>
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>375</v>
+      <c r="A543" s="1">
+        <v>45103</v>
       </c>
       <c r="B543">
         <v>223</v>
@@ -71294,8 +70085,8 @@
       </c>
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>376</v>
+      <c r="A544" s="1">
+        <v>45104</v>
       </c>
       <c r="B544">
         <v>223</v>
@@ -71374,8 +70165,8 @@
       </c>
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>377</v>
+      <c r="A545" s="1">
+        <v>45105</v>
       </c>
       <c r="B545">
         <v>222</v>
@@ -71454,8 +70245,8 @@
       </c>
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>378</v>
+      <c r="A546" s="1">
+        <v>45106</v>
       </c>
       <c r="B546">
         <v>223</v>
@@ -71534,8 +70325,8 @@
       </c>
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>379</v>
+      <c r="A547" s="1">
+        <v>45107</v>
       </c>
       <c r="B547">
         <v>229</v>
@@ -71615,7 +70406,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>44933</v>
+        <v>45108</v>
       </c>
       <c r="B548">
         <v>217</v>
@@ -71695,7 +70486,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>44964</v>
+        <v>45109</v>
       </c>
       <c r="B549">
         <v>191</v>
@@ -71775,7 +70566,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>44992</v>
+        <v>45110</v>
       </c>
       <c r="B550">
         <v>178</v>
@@ -71855,7 +70646,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>45023</v>
+        <v>45111</v>
       </c>
       <c r="B551">
         <v>188</v>
@@ -71935,7 +70726,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>45053</v>
+        <v>45112</v>
       </c>
       <c r="B552">
         <v>177</v>
@@ -72015,7 +70806,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="B553">
         <v>171</v>
@@ -72175,7 +70966,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>45145</v>
+        <v>45115</v>
       </c>
       <c r="B555">
         <v>171</v>
@@ -72255,7 +71046,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>45176</v>
+        <v>45116</v>
       </c>
       <c r="B556">
         <v>155</v>
@@ -72335,7 +71126,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>45206</v>
+        <v>45117</v>
       </c>
       <c r="B557">
         <v>154</v>
@@ -72415,7 +71206,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>45237</v>
+        <v>45118</v>
       </c>
       <c r="B558">
         <v>155</v>
@@ -72495,7 +71286,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>45267</v>
+        <v>45119</v>
       </c>
       <c r="B559">
         <v>158</v>
@@ -72574,8 +71365,8 @@
       </c>
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>380</v>
+      <c r="A560" s="1">
+        <v>45120</v>
       </c>
       <c r="B560">
         <v>150</v>
@@ -72654,8 +71445,8 @@
       </c>
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>381</v>
+      <c r="A561" s="1">
+        <v>45121</v>
       </c>
       <c r="B561">
         <v>148</v>
@@ -72734,8 +71525,8 @@
       </c>
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>382</v>
+      <c r="A562" s="1">
+        <v>45122</v>
       </c>
       <c r="B562">
         <v>147</v>
@@ -72814,8 +71605,8 @@
       </c>
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>383</v>
+      <c r="A563" s="1">
+        <v>45123</v>
       </c>
       <c r="B563">
         <v>132</v>
@@ -72894,8 +71685,8 @@
       </c>
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>384</v>
+      <c r="A564" s="1">
+        <v>45124</v>
       </c>
       <c r="B564">
         <v>127</v>
@@ -72974,8 +71765,8 @@
       </c>
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>385</v>
+      <c r="A565" s="1">
+        <v>45125</v>
       </c>
       <c r="B565">
         <v>136</v>
@@ -73054,8 +71845,8 @@
       </c>
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>386</v>
+      <c r="A566" s="1">
+        <v>45126</v>
       </c>
       <c r="B566">
         <v>124</v>
@@ -73134,8 +71925,8 @@
       </c>
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>387</v>
+      <c r="A567" s="1">
+        <v>45127</v>
       </c>
       <c r="B567">
         <v>124</v>
@@ -73214,8 +72005,8 @@
       </c>
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>388</v>
+      <c r="A568" s="1">
+        <v>45128</v>
       </c>
       <c r="B568">
         <v>127</v>
@@ -73294,8 +72085,8 @@
       </c>
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>389</v>
+      <c r="A569" s="1">
+        <v>45129</v>
       </c>
       <c r="B569">
         <v>118</v>
@@ -73374,8 +72165,8 @@
       </c>
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>390</v>
+      <c r="A570" s="1">
+        <v>45130</v>
       </c>
       <c r="B570">
         <v>110</v>
@@ -73454,8 +72245,8 @@
       </c>
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>391</v>
+      <c r="A571" s="1">
+        <v>45131</v>
       </c>
       <c r="B571">
         <v>110</v>
@@ -73534,8 +72325,8 @@
       </c>
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>392</v>
+      <c r="A572" s="1">
+        <v>45132</v>
       </c>
       <c r="B572">
         <v>105</v>
@@ -73614,8 +72405,8 @@
       </c>
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>393</v>
+      <c r="A573" s="1">
+        <v>45133</v>
       </c>
       <c r="B573">
         <v>111</v>
@@ -73694,8 +72485,8 @@
       </c>
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>394</v>
+      <c r="A574" s="1">
+        <v>45134</v>
       </c>
       <c r="B574">
         <v>109</v>
@@ -73774,8 +72565,8 @@
       </c>
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>395</v>
+      <c r="A575" s="1">
+        <v>45135</v>
       </c>
       <c r="B575">
         <v>112</v>
@@ -73854,8 +72645,8 @@
       </c>
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>396</v>
+      <c r="A576" s="1">
+        <v>45136</v>
       </c>
       <c r="B576">
         <v>106</v>
@@ -73934,8 +72725,8 @@
       </c>
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>397</v>
+      <c r="A577" s="1">
+        <v>45137</v>
       </c>
       <c r="B577">
         <v>92</v>
@@ -74014,8 +72805,8 @@
       </c>
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>398</v>
+      <c r="A578" s="1">
+        <v>45138</v>
       </c>
       <c r="B578">
         <v>101</v>
@@ -74095,7 +72886,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>44934</v>
+        <v>45139</v>
       </c>
       <c r="B579">
         <v>104</v>
@@ -74175,7 +72966,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>44965</v>
+        <v>45140</v>
       </c>
       <c r="B580">
         <v>99</v>
@@ -74255,7 +73046,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>44993</v>
+        <v>45141</v>
       </c>
       <c r="B581">
         <v>95</v>
@@ -74335,7 +73126,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>45024</v>
+        <v>45142</v>
       </c>
       <c r="B582">
         <v>102</v>
@@ -74415,7 +73206,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>45054</v>
+        <v>45143</v>
       </c>
       <c r="B583">
         <v>99</v>
@@ -74495,7 +73286,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="B584">
         <v>90</v>
@@ -74575,7 +73366,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>45115</v>
+        <v>45145</v>
       </c>
       <c r="B585">
         <v>94</v>
@@ -74735,7 +73526,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>45177</v>
+        <v>45147</v>
       </c>
       <c r="B587">
         <v>92</v>
@@ -74815,7 +73606,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>45207</v>
+        <v>45148</v>
       </c>
       <c r="B588">
         <v>92</v>
@@ -74895,7 +73686,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>45238</v>
+        <v>45149</v>
       </c>
       <c r="B589">
         <v>94</v>
@@ -74975,7 +73766,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>45268</v>
+        <v>45150</v>
       </c>
       <c r="B590">
         <v>91</v>
@@ -75054,8 +73845,8 @@
       </c>
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>399</v>
+      <c r="A591" s="1">
+        <v>45151</v>
       </c>
       <c r="B591">
         <v>81</v>
@@ -75134,8 +73925,8 @@
       </c>
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>400</v>
+      <c r="A592" s="1">
+        <v>45152</v>
       </c>
       <c r="B592">
         <v>81</v>
@@ -75214,8 +74005,8 @@
       </c>
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>401</v>
+      <c r="A593" s="1">
+        <v>45153</v>
       </c>
       <c r="B593">
         <v>80</v>
@@ -75294,8 +74085,8 @@
       </c>
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>402</v>
+      <c r="A594" s="1">
+        <v>45154</v>
       </c>
       <c r="B594">
         <v>80</v>
@@ -75374,8 +74165,8 @@
       </c>
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>403</v>
+      <c r="A595" s="1">
+        <v>45155</v>
       </c>
       <c r="B595">
         <v>80</v>
@@ -75454,8 +74245,8 @@
       </c>
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>404</v>
+      <c r="A596" s="1">
+        <v>45156</v>
       </c>
       <c r="B596">
         <v>80</v>
@@ -75534,8 +74325,8 @@
       </c>
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>405</v>
+      <c r="A597" s="1">
+        <v>45157</v>
       </c>
       <c r="B597">
         <v>78</v>
@@ -75614,8 +74405,8 @@
       </c>
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>406</v>
+      <c r="A598" s="1">
+        <v>45158</v>
       </c>
       <c r="B598">
         <v>71</v>
@@ -75694,8 +74485,8 @@
       </c>
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>407</v>
+      <c r="A599" s="1">
+        <v>45159</v>
       </c>
       <c r="B599">
         <v>74</v>
@@ -75774,8 +74565,8 @@
       </c>
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
-        <v>408</v>
+      <c r="A600" s="1">
+        <v>45160</v>
       </c>
       <c r="B600">
         <v>69</v>
@@ -75854,8 +74645,8 @@
       </c>
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>409</v>
+      <c r="A601" s="1">
+        <v>45161</v>
       </c>
       <c r="B601">
         <v>75</v>
@@ -75934,8 +74725,8 @@
       </c>
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>410</v>
+      <c r="A602" s="1">
+        <v>45162</v>
       </c>
       <c r="B602">
         <v>85</v>
@@ -76014,8 +74805,8 @@
       </c>
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>411</v>
+      <c r="A603" s="1">
+        <v>45163</v>
       </c>
       <c r="B603">
         <v>81</v>
@@ -76094,8 +74885,8 @@
       </c>
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>412</v>
+      <c r="A604" s="1">
+        <v>45164</v>
       </c>
       <c r="B604">
         <v>76</v>
@@ -76174,8 +74965,8 @@
       </c>
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>413</v>
+      <c r="A605" s="1">
+        <v>45165</v>
       </c>
       <c r="B605">
         <v>68</v>
@@ -76254,8 +75045,8 @@
       </c>
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>414</v>
+      <c r="A606" s="1">
+        <v>45166</v>
       </c>
       <c r="B606">
         <v>76</v>
@@ -76334,8 +75125,8 @@
       </c>
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
-        <v>415</v>
+      <c r="A607" s="1">
+        <v>45167</v>
       </c>
       <c r="B607">
         <v>78</v>
@@ -76414,8 +75205,8 @@
       </c>
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>416</v>
+      <c r="A608" s="1">
+        <v>45168</v>
       </c>
       <c r="B608">
         <v>78</v>
@@ -76494,8 +75285,8 @@
       </c>
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>417</v>
+      <c r="A609" s="1">
+        <v>45169</v>
       </c>
       <c r="B609">
         <v>82</v>
@@ -76575,7 +75366,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>44935</v>
+        <v>45170</v>
       </c>
       <c r="B610">
         <v>86</v>
@@ -76655,7 +75446,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>44966</v>
+        <v>45171</v>
       </c>
       <c r="B611">
         <v>84</v>
@@ -76735,7 +75526,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>44994</v>
+        <v>45172</v>
       </c>
       <c r="B612">
         <v>79</v>
@@ -76815,7 +75606,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>45025</v>
+        <v>45173</v>
       </c>
       <c r="B613">
         <v>82</v>
@@ -76895,7 +75686,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>45055</v>
+        <v>45174</v>
       </c>
       <c r="B614">
         <v>83</v>
@@ -76975,7 +75766,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="B615">
         <v>79</v>
@@ -77055,7 +75846,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>45116</v>
+        <v>45176</v>
       </c>
       <c r="B616">
         <v>78</v>
@@ -77135,7 +75926,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>45147</v>
+        <v>45177</v>
       </c>
       <c r="B617">
         <v>94</v>
@@ -77295,7 +76086,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>45208</v>
+        <v>45179</v>
       </c>
       <c r="B619">
         <v>82</v>
@@ -77375,7 +76166,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>45239</v>
+        <v>45180</v>
       </c>
       <c r="B620">
         <v>92</v>
@@ -77455,7 +76246,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>45269</v>
+        <v>45181</v>
       </c>
       <c r="B621">
         <v>97</v>
@@ -77534,8 +76325,8 @@
       </c>
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>418</v>
+      <c r="A622" s="1">
+        <v>45182</v>
       </c>
       <c r="B622">
         <v>97</v>
@@ -77614,8 +76405,8 @@
       </c>
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>419</v>
+      <c r="A623" s="1">
+        <v>45183</v>
       </c>
       <c r="B623">
         <v>92</v>
@@ -77694,8 +76485,8 @@
       </c>
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>420</v>
+      <c r="A624" s="1">
+        <v>45184</v>
       </c>
       <c r="B624">
         <v>101</v>
@@ -77774,8 +76565,8 @@
       </c>
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>421</v>
+      <c r="A625" s="1">
+        <v>45185</v>
       </c>
       <c r="B625">
         <v>100</v>
@@ -77854,8 +76645,8 @@
       </c>
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
-        <v>422</v>
+      <c r="A626" s="1">
+        <v>45186</v>
       </c>
       <c r="B626">
         <v>92</v>
@@ -77934,8 +76725,8 @@
       </c>
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>423</v>
+      <c r="A627" s="1">
+        <v>45187</v>
       </c>
       <c r="B627">
         <v>96</v>
@@ -78014,8 +76805,8 @@
       </c>
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>424</v>
+      <c r="A628" s="1">
+        <v>45188</v>
       </c>
       <c r="B628">
         <v>102</v>
@@ -78094,8 +76885,8 @@
       </c>
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>425</v>
+      <c r="A629" s="1">
+        <v>45189</v>
       </c>
       <c r="B629">
         <v>110</v>
@@ -78174,8 +76965,8 @@
       </c>
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>426</v>
+      <c r="A630" s="1">
+        <v>45190</v>
       </c>
       <c r="B630">
         <v>114</v>
@@ -78254,8 +77045,8 @@
       </c>
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>427</v>
+      <c r="A631" s="1">
+        <v>45191</v>
       </c>
       <c r="B631">
         <v>126</v>
@@ -78334,8 +77125,8 @@
       </c>
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>428</v>
+      <c r="A632" s="1">
+        <v>45192</v>
       </c>
       <c r="B632">
         <v>121</v>
@@ -78414,8 +77205,8 @@
       </c>
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>429</v>
+      <c r="A633" s="1">
+        <v>45193</v>
       </c>
       <c r="B633">
         <v>111</v>
@@ -78494,8 +77285,8 @@
       </c>
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>430</v>
+      <c r="A634" s="1">
+        <v>45194</v>
       </c>
       <c r="B634">
         <v>115</v>
@@ -78574,8 +77365,8 @@
       </c>
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
-        <v>431</v>
+      <c r="A635" s="1">
+        <v>45195</v>
       </c>
       <c r="B635">
         <v>118</v>
@@ -78654,8 +77445,8 @@
       </c>
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
-        <v>432</v>
+      <c r="A636" s="1">
+        <v>45196</v>
       </c>
       <c r="B636">
         <v>122</v>
@@ -78734,8 +77525,8 @@
       </c>
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
-        <v>433</v>
+      <c r="A637" s="1">
+        <v>45197</v>
       </c>
       <c r="B637">
         <v>124</v>
@@ -78814,8 +77605,8 @@
       </c>
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
-        <v>434</v>
+      <c r="A638" s="1">
+        <v>45198</v>
       </c>
       <c r="B638">
         <v>138</v>
@@ -78894,8 +77685,8 @@
       </c>
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
-        <v>435</v>
+      <c r="A639" s="1">
+        <v>45199</v>
       </c>
       <c r="B639">
         <v>134</v>
@@ -78975,7 +77766,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>44936</v>
+        <v>45200</v>
       </c>
       <c r="B640">
         <v>134</v>
@@ -79055,7 +77846,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>44967</v>
+        <v>45201</v>
       </c>
       <c r="B641">
         <v>138</v>
@@ -79135,7 +77926,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>44995</v>
+        <v>45202</v>
       </c>
       <c r="B642">
         <v>139</v>
@@ -79215,7 +78006,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>45026</v>
+        <v>45203</v>
       </c>
       <c r="B643">
         <v>144</v>
@@ -79295,7 +78086,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>45056</v>
+        <v>45204</v>
       </c>
       <c r="B644">
         <v>137</v>
@@ -79375,7 +78166,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>45087</v>
+        <v>45205</v>
       </c>
       <c r="B645">
         <v>137</v>
@@ -79455,7 +78246,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>45117</v>
+        <v>45206</v>
       </c>
       <c r="B646">
         <v>135</v>
@@ -79535,7 +78326,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>45148</v>
+        <v>45207</v>
       </c>
       <c r="B647">
         <v>130</v>
@@ -79615,7 +78406,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>45179</v>
+        <v>45208</v>
       </c>
       <c r="B648">
         <v>130</v>
@@ -79775,7 +78566,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>45240</v>
+        <v>45210</v>
       </c>
       <c r="B650">
         <v>140</v>
@@ -79855,7 +78646,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>45270</v>
+        <v>45211</v>
       </c>
       <c r="B651">
         <v>144</v>
@@ -79934,8 +78725,8 @@
       </c>
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>436</v>
+      <c r="A652" s="1">
+        <v>45212</v>
       </c>
       <c r="B652">
         <v>152</v>
@@ -80014,8 +78805,8 @@
       </c>
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
-        <v>437</v>
+      <c r="A653" s="1">
+        <v>45213</v>
       </c>
       <c r="B653">
         <v>146</v>
@@ -80094,8 +78885,8 @@
       </c>
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
-        <v>438</v>
+      <c r="A654" s="1">
+        <v>45214</v>
       </c>
       <c r="B654">
         <v>147</v>
@@ -80174,8 +78965,8 @@
       </c>
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
-        <v>439</v>
+      <c r="A655" s="1">
+        <v>45215</v>
       </c>
       <c r="B655">
         <v>155</v>
@@ -80254,8 +79045,8 @@
       </c>
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
-        <v>440</v>
+      <c r="A656" s="1">
+        <v>45216</v>
       </c>
       <c r="B656">
         <v>170</v>
@@ -80334,8 +79125,8 @@
       </c>
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
-        <v>441</v>
+      <c r="A657" s="1">
+        <v>45217</v>
       </c>
       <c r="B657">
         <v>178</v>
@@ -80414,8 +79205,8 @@
       </c>
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>442</v>
+      <c r="A658" s="1">
+        <v>45218</v>
       </c>
       <c r="B658">
         <v>188</v>
@@ -80494,8 +79285,8 @@
       </c>
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>443</v>
+      <c r="A659" s="1">
+        <v>45219</v>
       </c>
       <c r="B659">
         <v>192</v>
@@ -80574,8 +79365,8 @@
       </c>
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
-        <v>444</v>
+      <c r="A660" s="1">
+        <v>45220</v>
       </c>
       <c r="B660">
         <v>187</v>
@@ -80654,8 +79445,8 @@
       </c>
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
-        <v>445</v>
+      <c r="A661" s="1">
+        <v>45221</v>
       </c>
       <c r="B661">
         <v>183</v>
@@ -80734,8 +79525,8 @@
       </c>
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
-        <v>446</v>
+      <c r="A662" s="1">
+        <v>45222</v>
       </c>
       <c r="B662">
         <v>193</v>
@@ -80814,8 +79605,8 @@
       </c>
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
-        <v>447</v>
+      <c r="A663" s="1">
+        <v>45223</v>
       </c>
       <c r="B663">
         <v>207</v>
@@ -80894,8 +79685,8 @@
       </c>
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
-        <v>448</v>
+      <c r="A664" s="1">
+        <v>45224</v>
       </c>
       <c r="B664">
         <v>208</v>
@@ -80974,8 +79765,8 @@
       </c>
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
-        <v>449</v>
+      <c r="A665" s="1">
+        <v>45225</v>
       </c>
       <c r="B665">
         <v>210</v>
@@ -81054,8 +79845,8 @@
       </c>
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
-        <v>450</v>
+      <c r="A666" s="1">
+        <v>45226</v>
       </c>
       <c r="B666">
         <v>232</v>
@@ -81134,8 +79925,8 @@
       </c>
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
-        <v>451</v>
+      <c r="A667" s="1">
+        <v>45227</v>
       </c>
       <c r="B667">
         <v>227</v>
@@ -81214,8 +80005,8 @@
       </c>
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
-        <v>452</v>
+      <c r="A668" s="1">
+        <v>45228</v>
       </c>
       <c r="B668">
         <v>226</v>
@@ -81294,8 +80085,8 @@
       </c>
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
-        <v>453</v>
+      <c r="A669" s="1">
+        <v>45229</v>
       </c>
       <c r="B669">
         <v>247</v>
@@ -81374,8 +80165,8 @@
       </c>
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
-        <v>454</v>
+      <c r="A670" s="1">
+        <v>45230</v>
       </c>
       <c r="B670">
         <v>275</v>
@@ -81455,7 +80246,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>44937</v>
+        <v>45231</v>
       </c>
       <c r="B671">
         <v>291</v>
@@ -81535,7 +80326,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>44968</v>
+        <v>45232</v>
       </c>
       <c r="B672">
         <v>294</v>
@@ -81615,7 +80406,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>44996</v>
+        <v>45233</v>
       </c>
       <c r="B673">
         <v>302</v>
@@ -81695,7 +80486,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>45027</v>
+        <v>45234</v>
       </c>
       <c r="B674">
         <v>298</v>
@@ -81775,7 +80566,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>45057</v>
+        <v>45235</v>
       </c>
       <c r="B675">
         <v>297</v>
@@ -81855,7 +80646,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>45088</v>
+        <v>45236</v>
       </c>
       <c r="B676">
         <v>313</v>
@@ -81935,7 +80726,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>45118</v>
+        <v>45237</v>
       </c>
       <c r="B677">
         <v>322</v>
@@ -82015,7 +80806,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>45149</v>
+        <v>45238</v>
       </c>
       <c r="B678">
         <v>334</v>

--- a/pandemic/AUS_COVID19Data_Monthly.xlsx
+++ b/pandemic/AUS_COVID19Data_Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED8FEA-0B93-40CB-A4AF-ECAF846B202E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AF64E-FC00-4555-BD72-C1DDE2BADC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C739"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="B711" sqref="B711"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/pandemic/AUS_COVID19Data_Monthly.xlsx
+++ b/pandemic/AUS_COVID19Data_Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AF64E-FC00-4555-BD72-C1DDE2BADC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B1DBC-B0DB-4070-A20C-331723756DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,9 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
-      <selection activeCell="B711" sqref="B711"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
